--- a/Basilisks live amongst us 7-31-18 SMC order.xlsx
+++ b/Basilisks live amongst us 7-31-18 SMC order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B620C1B2-C5B5-4F6A-8C0F-6B981EB839AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9F7FEE-5C0A-4364-80E3-C820195A0D7F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONSOLIDATED FOR MARK" sheetId="10" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="Lesson 5" sheetId="5" r:id="rId6"/>
     <sheet name="Multi-Lesson Supplies" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="432">
   <si>
     <t>PURCHASING ORDER FORM</t>
   </si>
@@ -1311,9 +1311,6 @@
     <t>Bargain Balloons.com</t>
   </si>
   <si>
-    <t>ord 7</t>
-  </si>
-  <si>
     <t>66 ord, various vendors</t>
   </si>
   <si>
@@ -1348,6 +1345,40 @@
       </rPr>
       <t xml:space="preserve"> 7500</t>
     </r>
+  </si>
+  <si>
+    <t>Duct Tape - multi-colored</t>
+  </si>
+  <si>
+    <r>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4 packs of 25</t>
+    </r>
+  </si>
+  <si>
+    <t>amazon &amp; dollar tree</t>
+  </si>
+  <si>
+    <t>ordered 1 case of 36 from DT</t>
+  </si>
+  <si>
+    <t>ordered 8 cases of 48 from DT</t>
+  </si>
+  <si>
+    <t>ord 7 amz ordered 4 cases of 24 6pks from DT. ON BO FROM DT UNTIL SEPTEMBER!!</t>
+  </si>
+  <si>
+    <t>ordered 8/8</t>
+  </si>
+  <si>
+    <t>ordered?</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1392,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1683,6 +1714,55 @@
       <sz val="12"/>
       <name val="HelveticaNeueLT Std"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="12"/>
+      <name val="HelveticaNeueLT Std"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2024,7 +2104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2490,12 +2570,6 @@
     <xf numFmtId="164" fontId="22" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="37" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2750,33 +2824,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2876,6 +2923,69 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3224,29 +3334,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17" style="223"/>
-    <col min="2" max="2" width="19.90625" style="224" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17" style="224"/>
-    <col min="5" max="8" width="17" style="224" customWidth="1"/>
-    <col min="9" max="16384" width="17" style="224"/>
+    <col min="1" max="1" width="17" style="221"/>
+    <col min="2" max="2" width="19.90625" style="222" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17" style="222"/>
+    <col min="5" max="8" width="17" style="222" customWidth="1"/>
+    <col min="9" max="16384" width="17" style="222"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="221" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="222" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="224" t="s">
+      <c r="B2" s="222" t="s">
         <v>394</v>
       </c>
     </row>
@@ -3309,8 +3419,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="226" customFormat="1" ht="35.4" customHeight="1">
-      <c r="A5" s="225" t="s">
+    <row r="5" spans="1:10" s="224" customFormat="1" ht="35.4" customHeight="1">
+      <c r="A5" s="223" t="s">
         <v>412</v>
       </c>
       <c r="B5" s="159" t="s">
@@ -3342,8 +3452,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="226" customFormat="1" ht="31.75" customHeight="1">
-      <c r="A6" s="225" t="s">
+    <row r="6" spans="1:10" s="224" customFormat="1" ht="31.75" customHeight="1">
+      <c r="A6" s="223" t="s">
         <v>411</v>
       </c>
       <c r="B6" s="159">
@@ -3371,12 +3481,12 @@
       <c r="I6" s="161" t="s">
         <v>278</v>
       </c>
-      <c r="J6" s="175" t="s">
+      <c r="J6" s="173" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="124">
-      <c r="A7" s="223" t="s">
+      <c r="A7" s="221" t="s">
         <v>415</v>
       </c>
       <c r="B7" s="163" t="s">
@@ -3407,8 +3517,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="226" customFormat="1" ht="51" customHeight="1">
-      <c r="A8" s="225" t="s">
+    <row r="8" spans="1:10" s="224" customFormat="1" ht="51" customHeight="1">
+      <c r="A8" s="223" t="s">
         <v>407</v>
       </c>
       <c r="B8" s="167" t="s">
@@ -3440,8 +3550,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="226" customFormat="1" ht="67.25" customHeight="1">
-      <c r="A9" s="225" t="s">
+    <row r="9" spans="1:10" s="224" customFormat="1" ht="67.25" customHeight="1">
+      <c r="A9" s="223" t="s">
         <v>412</v>
       </c>
       <c r="B9" s="159" t="s">
@@ -3459,149 +3569,149 @@
       <c r="F9" s="160" t="s">
         <v>290</v>
       </c>
-      <c r="G9" s="174">
+      <c r="G9" s="172">
         <v>5.99</v>
       </c>
-      <c r="H9" s="174">
+      <c r="H9" s="172">
         <f>SUM(E9*G9)</f>
         <v>353.41</v>
       </c>
       <c r="I9" s="161" t="s">
         <v>291</v>
       </c>
-      <c r="J9" s="212" t="s">
+      <c r="J9" s="210" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="226" customFormat="1" ht="84.65" customHeight="1">
-      <c r="A10" s="225"/>
-      <c r="B10" s="294">
+    <row r="10" spans="1:10" s="224" customFormat="1" ht="84.65" customHeight="1">
+      <c r="A10" s="223"/>
+      <c r="B10" s="283">
         <v>400011857257</v>
       </c>
-      <c r="C10" s="213" t="s">
+      <c r="C10" s="211" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="213" t="s">
+      <c r="D10" s="211" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="214">
+      <c r="E10" s="212">
         <v>67</v>
       </c>
-      <c r="F10" s="214" t="s">
+      <c r="F10" s="212" t="s">
         <v>293</v>
       </c>
-      <c r="G10" s="213">
+      <c r="G10" s="211">
         <v>8.19</v>
       </c>
-      <c r="H10" s="213">
+      <c r="H10" s="211">
         <f>SUM(E10*G10)</f>
         <v>548.73</v>
       </c>
-      <c r="I10" s="215" t="s">
+      <c r="I10" s="213" t="s">
         <v>294</v>
       </c>
-      <c r="J10" s="295" t="s">
+      <c r="J10" s="284" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="102.65" customHeight="1">
+    <row r="11" spans="1:10" s="224" customFormat="1" ht="102.65" customHeight="1">
       <c r="A11" s="223" t="s">
-        <v>418</v>
-      </c>
-      <c r="B11" s="155" t="s">
+        <v>429</v>
+      </c>
+      <c r="B11" s="159" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="159" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="155" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="156">
+      <c r="D11" s="159" t="s">
+        <v>426</v>
+      </c>
+      <c r="E11" s="160">
         <v>11</v>
       </c>
-      <c r="F11" s="156" t="s">
+      <c r="F11" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="169">
+      <c r="G11" s="172">
         <v>10.99</v>
       </c>
-      <c r="H11" s="170">
+      <c r="H11" s="306">
         <f>SUM(E11*G11)</f>
         <v>120.89</v>
       </c>
-      <c r="I11" s="157" t="s">
+      <c r="I11" s="161" t="s">
         <v>296</v>
       </c>
-      <c r="J11" s="158" t="s">
+      <c r="J11" s="173" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="226" customFormat="1" ht="46.75" customHeight="1">
-      <c r="A12" s="225" t="s">
+    <row r="12" spans="1:10" s="224" customFormat="1" ht="46.75" customHeight="1">
+      <c r="A12" s="223" t="s">
         <v>412</v>
       </c>
-      <c r="B12" s="213" t="s">
+      <c r="B12" s="211" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="213" t="s">
+      <c r="C12" s="211" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="213" t="s">
+      <c r="D12" s="211" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="214">
+      <c r="E12" s="212">
         <v>10</v>
       </c>
-      <c r="F12" s="213" t="s">
+      <c r="F12" s="211" t="s">
         <v>297</v>
       </c>
-      <c r="G12" s="215">
+      <c r="G12" s="213">
         <v>4.99</v>
       </c>
-      <c r="H12" s="215">
+      <c r="H12" s="213">
         <f>E12*G12</f>
         <v>49.900000000000006</v>
       </c>
-      <c r="I12" s="215" t="s">
+      <c r="I12" s="213" t="s">
         <v>298</v>
       </c>
-      <c r="J12" s="216" t="s">
+      <c r="J12" s="214" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="226" customFormat="1" ht="226.75" customHeight="1">
-      <c r="A13" s="225"/>
-      <c r="B13" s="294">
+    <row r="13" spans="1:10" s="224" customFormat="1" ht="226.75" customHeight="1">
+      <c r="A13" s="223"/>
+      <c r="B13" s="283">
         <v>10074506116197</v>
       </c>
-      <c r="C13" s="213" t="s">
+      <c r="C13" s="211" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="213" t="s">
+      <c r="D13" s="211" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="214">
+      <c r="E13" s="212">
         <v>0</v>
       </c>
-      <c r="F13" s="214" t="s">
+      <c r="F13" s="212" t="s">
         <v>300</v>
       </c>
-      <c r="G13" s="213">
+      <c r="G13" s="211">
         <v>0</v>
       </c>
-      <c r="H13" s="296">
+      <c r="H13" s="285">
         <v>0</v>
       </c>
       <c r="I13" s="165" t="s">
         <v>301</v>
       </c>
-      <c r="J13" s="216" t="s">
+      <c r="J13" s="214" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="226" customFormat="1" ht="45.65" customHeight="1">
-      <c r="A14" s="225"/>
+    <row r="14" spans="1:10" s="224" customFormat="1" ht="45.65" customHeight="1">
+      <c r="A14" s="223"/>
       <c r="B14" s="159" t="s">
         <v>133</v>
       </c>
@@ -3611,7 +3721,7 @@
       <c r="D14" s="159" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="171">
+      <c r="E14" s="169">
         <v>110</v>
       </c>
       <c r="F14" s="159" t="s">
@@ -3627,12 +3737,12 @@
       <c r="I14" s="161" t="s">
         <v>303</v>
       </c>
-      <c r="J14" s="172" t="s">
+      <c r="J14" s="170" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="226" customFormat="1" ht="74.400000000000006" customHeight="1">
-      <c r="A15" s="225"/>
+    <row r="15" spans="1:10" s="224" customFormat="1" ht="74.400000000000006" customHeight="1">
+      <c r="A15" s="223"/>
       <c r="B15" s="159" t="s">
         <v>305</v>
       </c>
@@ -3642,7 +3752,7 @@
       <c r="D15" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="171">
+      <c r="E15" s="169">
         <v>12</v>
       </c>
       <c r="F15" s="159" t="s">
@@ -3651,7 +3761,7 @@
       <c r="G15" s="159">
         <v>10.99</v>
       </c>
-      <c r="H15" s="173">
+      <c r="H15" s="171">
         <f t="shared" ref="H15:H21" si="0">SUM(E15*G15)</f>
         <v>131.88</v>
       </c>
@@ -3662,9 +3772,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="226" customFormat="1" ht="81.650000000000006" customHeight="1">
-      <c r="A16" s="225" t="s">
-        <v>420</v>
+    <row r="16" spans="1:10" s="224" customFormat="1" ht="81.650000000000006" customHeight="1">
+      <c r="A16" s="223" t="s">
+        <v>419</v>
       </c>
       <c r="B16" s="159" t="s">
         <v>310</v>
@@ -3681,22 +3791,22 @@
       <c r="F16" s="160" t="s">
         <v>312</v>
       </c>
-      <c r="G16" s="174">
+      <c r="G16" s="172">
         <v>39</v>
       </c>
-      <c r="H16" s="174">
+      <c r="H16" s="172">
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
       <c r="I16" s="161" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="175" t="s">
+      <c r="J16" s="173" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="226" customFormat="1" ht="77.400000000000006" customHeight="1">
-      <c r="A17" s="225"/>
+    <row r="17" spans="1:10" s="224" customFormat="1" ht="77.400000000000006" customHeight="1">
+      <c r="A17" s="223"/>
       <c r="B17" s="159" t="s">
         <v>314</v>
       </c>
@@ -3712,53 +3822,53 @@
       <c r="F17" s="160" t="s">
         <v>316</v>
       </c>
-      <c r="G17" s="174">
+      <c r="G17" s="172">
         <v>24.98</v>
       </c>
-      <c r="H17" s="174">
+      <c r="H17" s="172">
         <f t="shared" si="0"/>
         <v>574.54</v>
       </c>
       <c r="I17" s="161" t="s">
         <v>276</v>
       </c>
-      <c r="J17" s="175" t="s">
+      <c r="J17" s="173" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="226" customFormat="1" ht="93">
-      <c r="A18" s="225"/>
-      <c r="B18" s="213" t="s">
+    <row r="18" spans="1:10" s="224" customFormat="1" ht="93">
+      <c r="A18" s="223"/>
+      <c r="B18" s="211" t="s">
         <v>318</v>
       </c>
-      <c r="C18" s="213" t="s">
+      <c r="C18" s="211" t="s">
         <v>319</v>
       </c>
-      <c r="D18" s="213" t="s">
+      <c r="D18" s="211" t="s">
         <v>320</v>
       </c>
-      <c r="E18" s="213">
+      <c r="E18" s="211">
         <v>810</v>
       </c>
-      <c r="F18" s="213" t="s">
+      <c r="F18" s="211" t="s">
         <v>321</v>
       </c>
-      <c r="G18" s="214">
+      <c r="G18" s="212">
         <v>0.33</v>
       </c>
-      <c r="H18" s="213">
+      <c r="H18" s="211">
         <f t="shared" si="0"/>
         <v>267.3</v>
       </c>
-      <c r="I18" s="213" t="s">
+      <c r="I18" s="211" t="s">
         <v>322</v>
       </c>
-      <c r="J18" s="245" t="s">
+      <c r="J18" s="243" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="226" customFormat="1" ht="31.75" customHeight="1">
-      <c r="A19" s="225"/>
+    <row r="19" spans="1:10" s="224" customFormat="1" ht="31.75" customHeight="1">
+      <c r="A19" s="223"/>
       <c r="B19" s="159" t="s">
         <v>324</v>
       </c>
@@ -3774,128 +3884,126 @@
       <c r="F19" s="160" t="s">
         <v>326</v>
       </c>
-      <c r="G19" s="176">
+      <c r="G19" s="174">
         <v>54</v>
       </c>
-      <c r="H19" s="176">
+      <c r="H19" s="174">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="I19" s="175" t="s">
+      <c r="I19" s="173" t="s">
         <v>313</v>
       </c>
       <c r="J19" s="162" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="88.75" customHeight="1">
+    <row r="20" spans="1:10" s="224" customFormat="1" ht="88.75" customHeight="1">
       <c r="A20" s="223" t="s">
-        <v>408</v>
-      </c>
-      <c r="B20" s="155">
-        <v>13635085</v>
-      </c>
-      <c r="C20" s="155" t="s">
-        <v>328</v>
-      </c>
-      <c r="D20" s="155" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="156">
-        <v>110</v>
-      </c>
-      <c r="F20" s="156" t="s">
+        <v>412</v>
+      </c>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159" t="s">
+        <v>424</v>
+      </c>
+      <c r="D20" s="159" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="305" t="s">
+        <v>425</v>
+      </c>
+      <c r="F20" s="160" t="s">
         <v>329</v>
       </c>
-      <c r="G20" s="155">
-        <v>1.99</v>
-      </c>
-      <c r="H20" s="155">
+      <c r="G20" s="159">
+        <v>39.99</v>
+      </c>
+      <c r="H20" s="159" t="e">
         <f t="shared" si="0"/>
-        <v>218.9</v>
-      </c>
-      <c r="I20" s="157" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" s="161" t="s">
         <v>278</v>
       </c>
-      <c r="J20" s="158" t="s">
+      <c r="J20" s="173" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="226" customFormat="1" ht="59.4" customHeight="1">
-      <c r="A21" s="225" t="s">
+    <row r="21" spans="1:10" s="224" customFormat="1" ht="59.4" customHeight="1">
+      <c r="A21" s="223" t="s">
         <v>412</v>
       </c>
-      <c r="B21" s="246" t="s">
+      <c r="B21" s="244" t="s">
         <v>335</v>
       </c>
-      <c r="C21" s="247" t="s">
+      <c r="C21" s="245" t="s">
         <v>336</v>
       </c>
-      <c r="D21" s="247" t="s">
+      <c r="D21" s="245" t="s">
         <v>320</v>
       </c>
-      <c r="E21" s="248">
+      <c r="E21" s="246">
         <v>15</v>
       </c>
-      <c r="F21" s="248" t="s">
+      <c r="F21" s="246" t="s">
         <v>337</v>
       </c>
-      <c r="G21" s="249">
+      <c r="G21" s="247">
         <v>51</v>
       </c>
-      <c r="H21" s="249">
+      <c r="H21" s="247">
         <f t="shared" si="0"/>
         <v>765</v>
       </c>
-      <c r="I21" s="250" t="s">
+      <c r="I21" s="248" t="s">
         <v>338</v>
       </c>
-      <c r="J21" s="251" t="s">
+      <c r="J21" s="249" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="B22" s="224" t="s">
+      <c r="B22" s="222" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="36.5" thickBot="1">
-      <c r="A23" s="225" t="s">
+      <c r="A23" s="223" t="s">
         <v>405</v>
       </c>
-      <c r="B23" s="177" t="s">
+      <c r="B23" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="178" t="s">
+      <c r="C23" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="178" t="s">
+      <c r="D23" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="177" t="s">
+      <c r="E23" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="177" t="s">
+      <c r="F23" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="177" t="s">
+      <c r="G23" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="179" t="s">
+      <c r="H23" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="177" t="s">
+      <c r="I23" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="177" t="s">
+      <c r="J23" s="175" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="226" customFormat="1" ht="72" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="225" t="s">
+    <row r="24" spans="1:10" s="224" customFormat="1" ht="72" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A24" s="223" t="s">
         <v>412</v>
       </c>
-      <c r="B24" s="185" t="s">
+      <c r="B24" s="183" t="s">
         <v>185</v>
       </c>
       <c r="C24" s="74" t="s">
@@ -3904,29 +4012,29 @@
       <c r="D24" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="186">
+      <c r="E24" s="184">
         <v>80</v>
       </c>
       <c r="F24" s="74">
         <v>8</v>
       </c>
-      <c r="G24" s="187">
+      <c r="G24" s="185">
         <v>2.99</v>
       </c>
-      <c r="H24" s="188">
+      <c r="H24" s="186">
         <f t="shared" ref="H24:H41" si="1">E24*G24</f>
         <v>239.20000000000002</v>
       </c>
-      <c r="I24" s="201"/>
-      <c r="J24" s="189" t="s">
+      <c r="I24" s="199"/>
+      <c r="J24" s="187" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="226" customFormat="1" ht="150" customHeight="1" thickBot="1">
-      <c r="A25" s="225" t="s">
+    <row r="25" spans="1:10" s="224" customFormat="1" ht="150" customHeight="1" thickBot="1">
+      <c r="A25" s="223" t="s">
         <v>412</v>
       </c>
-      <c r="B25" s="185" t="s">
+      <c r="B25" s="183" t="s">
         <v>189</v>
       </c>
       <c r="C25" s="74" t="s">
@@ -3935,29 +4043,29 @@
       <c r="D25" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="186">
+      <c r="E25" s="184">
         <v>550</v>
       </c>
       <c r="F25" s="74">
         <v>1</v>
       </c>
-      <c r="G25" s="187">
+      <c r="G25" s="185">
         <v>2.29</v>
       </c>
-      <c r="H25" s="188">
+      <c r="H25" s="186">
         <f t="shared" si="1"/>
         <v>1259.5</v>
       </c>
-      <c r="I25" s="188" t="s">
+      <c r="I25" s="186" t="s">
         <v>191</v>
       </c>
-      <c r="J25" s="189" t="s">
+      <c r="J25" s="187" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="226" customFormat="1" ht="77.400000000000006" customHeight="1" thickBot="1">
-      <c r="A26" s="225"/>
-      <c r="B26" s="185" t="s">
+    <row r="26" spans="1:10" s="224" customFormat="1" ht="77.400000000000006" customHeight="1" thickBot="1">
+      <c r="A26" s="223"/>
+      <c r="B26" s="183" t="s">
         <v>196</v>
       </c>
       <c r="C26" s="74" t="s">
@@ -3966,160 +4074,162 @@
       <c r="D26" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="E26" s="186">
+      <c r="E26" s="184">
         <v>110</v>
       </c>
       <c r="F26" s="74"/>
-      <c r="G26" s="187">
+      <c r="G26" s="185">
         <v>1.77</v>
       </c>
-      <c r="H26" s="188">
+      <c r="H26" s="186">
         <f t="shared" si="1"/>
         <v>194.7</v>
       </c>
-      <c r="I26" s="188"/>
-      <c r="J26" s="189" t="s">
+      <c r="I26" s="186"/>
+      <c r="J26" s="187" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="142.25" customHeight="1" thickBot="1">
-      <c r="A27" s="225" t="s">
-        <v>419</v>
-      </c>
-      <c r="B27" s="180"/>
+      <c r="A27" s="223" t="s">
+        <v>418</v>
+      </c>
+      <c r="B27" s="178"/>
       <c r="C27" s="150" t="s">
         <v>197</v>
       </c>
       <c r="D27" s="150" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="181">
+      <c r="E27" s="179">
         <v>110</v>
       </c>
       <c r="F27" s="150"/>
-      <c r="G27" s="182">
+      <c r="G27" s="180">
         <v>10.89</v>
       </c>
-      <c r="H27" s="183">
+      <c r="H27" s="181">
         <f t="shared" si="1"/>
         <v>1197.9000000000001</v>
       </c>
-      <c r="I27" s="183"/>
-      <c r="J27" s="184" t="s">
+      <c r="I27" s="181"/>
+      <c r="J27" s="182" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="226" customFormat="1" ht="93.5" thickBot="1">
-      <c r="A28" s="225"/>
-      <c r="B28" s="185"/>
+    <row r="28" spans="1:10" s="224" customFormat="1" ht="93.5" thickBot="1">
+      <c r="A28" s="223" t="s">
+        <v>412</v>
+      </c>
+      <c r="B28" s="183"/>
       <c r="C28" s="74" t="s">
         <v>200</v>
       </c>
       <c r="D28" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="186">
+      <c r="E28" s="184">
         <v>110</v>
       </c>
       <c r="F28" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="187">
+      <c r="G28" s="185">
         <v>3.47</v>
       </c>
-      <c r="H28" s="188">
+      <c r="H28" s="186">
         <f t="shared" si="1"/>
         <v>381.70000000000005</v>
       </c>
-      <c r="I28" s="188" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="189" t="s">
+      <c r="I28" s="186" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="187" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="226" customFormat="1" ht="93.5" thickBot="1">
-      <c r="A29" s="225"/>
-      <c r="B29" s="217"/>
-      <c r="C29" s="218" t="s">
+    <row r="29" spans="1:10" s="224" customFormat="1" ht="93.5" thickBot="1">
+      <c r="A29" s="223"/>
+      <c r="B29" s="215"/>
+      <c r="C29" s="216" t="s">
         <v>385</v>
       </c>
-      <c r="D29" s="218" t="s">
+      <c r="D29" s="216" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="219">
-        <v>2</v>
-      </c>
-      <c r="F29" s="218"/>
-      <c r="G29" s="220">
+      <c r="E29" s="217">
+        <v>2</v>
+      </c>
+      <c r="F29" s="216"/>
+      <c r="G29" s="218">
         <v>3.99</v>
       </c>
-      <c r="H29" s="221">
+      <c r="H29" s="219">
         <f t="shared" si="1"/>
         <v>7.98</v>
       </c>
-      <c r="I29" s="221" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="222" t="s">
+      <c r="I29" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="220" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16" thickBot="1">
-      <c r="A30" s="225"/>
-      <c r="B30" s="190"/>
+      <c r="A30" s="223"/>
+      <c r="B30" s="188"/>
       <c r="C30" s="151"/>
       <c r="D30" s="151"/>
-      <c r="E30" s="191"/>
+      <c r="E30" s="189"/>
       <c r="F30" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="192"/>
-      <c r="H30" s="193">
+      <c r="G30" s="190"/>
+      <c r="H30" s="191">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="193" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="195"/>
-    </row>
-    <row r="31" spans="1:10" s="226" customFormat="1" ht="124.5" thickBot="1">
-      <c r="A31" s="225" t="s">
+      <c r="I30" s="191" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="193"/>
+    </row>
+    <row r="31" spans="1:10" s="224" customFormat="1" ht="124.5" thickBot="1">
+      <c r="A31" s="223" t="s">
         <v>412</v>
       </c>
-      <c r="B31" s="217" t="s">
+      <c r="B31" s="215" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="218" t="s">
+      <c r="C31" s="216" t="s">
         <v>269</v>
       </c>
-      <c r="D31" s="218" t="s">
+      <c r="D31" s="216" t="s">
         <v>203</v>
       </c>
-      <c r="E31" s="219">
+      <c r="E31" s="217">
         <v>3</v>
       </c>
-      <c r="F31" s="218" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="220">
+      <c r="F31" s="216" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="218">
         <v>27</v>
       </c>
-      <c r="H31" s="221">
+      <c r="H31" s="219">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="I31" s="221" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="222" t="s">
+      <c r="I31" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="220" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="186.5" thickBot="1">
-      <c r="A32" s="225"/>
-      <c r="B32" s="190" t="s">
+      <c r="A32" s="223"/>
+      <c r="B32" s="188" t="s">
         <v>376</v>
       </c>
       <c r="C32" s="151" t="s">
@@ -4128,73 +4238,73 @@
       <c r="D32" s="151" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="191">
+      <c r="E32" s="189">
         <v>3</v>
       </c>
       <c r="F32" s="151"/>
-      <c r="G32" s="192">
+      <c r="G32" s="190">
         <v>154.37</v>
       </c>
-      <c r="H32" s="193">
+      <c r="H32" s="191">
         <f t="shared" si="1"/>
         <v>463.11</v>
       </c>
-      <c r="I32" s="193"/>
-      <c r="J32" s="194" t="s">
+      <c r="I32" s="191"/>
+      <c r="J32" s="192" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="226" customFormat="1" ht="93.5" thickBot="1">
-      <c r="A33" s="225"/>
-      <c r="B33" s="217" t="s">
+    <row r="33" spans="1:10" s="224" customFormat="1" ht="93.5" thickBot="1">
+      <c r="A33" s="223"/>
+      <c r="B33" s="215" t="s">
         <v>209</v>
       </c>
-      <c r="C33" s="218" t="s">
+      <c r="C33" s="216" t="s">
         <v>208</v>
       </c>
-      <c r="D33" s="218" t="s">
+      <c r="D33" s="216" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="219">
+      <c r="E33" s="217">
         <v>4</v>
       </c>
-      <c r="F33" s="218" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="220">
+      <c r="F33" s="216" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="218">
         <v>13.51</v>
       </c>
-      <c r="H33" s="221">
+      <c r="H33" s="219">
         <f t="shared" si="1"/>
         <v>54.04</v>
       </c>
-      <c r="I33" s="221" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" s="222" t="s">
+      <c r="I33" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="220" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16" thickBot="1">
-      <c r="A34" s="225"/>
-      <c r="B34" s="190"/>
+      <c r="A34" s="223"/>
+      <c r="B34" s="188"/>
       <c r="C34" s="151"/>
       <c r="D34" s="151"/>
-      <c r="E34" s="191"/>
+      <c r="E34" s="189"/>
       <c r="F34" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="192"/>
-      <c r="H34" s="193">
+      <c r="G34" s="190"/>
+      <c r="H34" s="191">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I34" s="193"/>
-      <c r="J34" s="194"/>
+      <c r="I34" s="191"/>
+      <c r="J34" s="192"/>
     </row>
     <row r="35" spans="1:10" ht="66" customHeight="1" thickBot="1">
-      <c r="A35" s="225"/>
-      <c r="B35" s="190" t="s">
+      <c r="A35" s="223"/>
+      <c r="B35" s="188" t="s">
         <v>212</v>
       </c>
       <c r="C35" s="151" t="s">
@@ -4203,62 +4313,62 @@
       <c r="D35" s="151" t="s">
         <v>211</v>
       </c>
-      <c r="E35" s="191">
+      <c r="E35" s="189">
         <v>220</v>
       </c>
       <c r="F35" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="192">
+      <c r="G35" s="190">
         <v>1.49</v>
       </c>
-      <c r="H35" s="193">
+      <c r="H35" s="191">
         <f t="shared" si="1"/>
         <v>327.8</v>
       </c>
-      <c r="I35" s="193" t="s">
-        <v>2</v>
-      </c>
-      <c r="J35" s="194" t="s">
+      <c r="I35" s="191" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="192" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="226" customFormat="1" ht="78" thickBot="1">
-      <c r="A36" s="225" t="s">
+    <row r="36" spans="1:10" s="224" customFormat="1" ht="78" thickBot="1">
+      <c r="A36" s="223" t="s">
         <v>416</v>
       </c>
-      <c r="B36" s="217" t="s">
+      <c r="B36" s="215" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="218" t="s">
+      <c r="C36" s="216" t="s">
         <v>216</v>
       </c>
-      <c r="D36" s="218" t="s">
+      <c r="D36" s="216" t="s">
         <v>417</v>
       </c>
-      <c r="E36" s="219">
+      <c r="E36" s="217">
         <v>19</v>
       </c>
-      <c r="F36" s="218" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="220">
+      <c r="F36" s="216" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="218">
         <v>4.99</v>
       </c>
-      <c r="H36" s="221">
+      <c r="H36" s="219">
         <f t="shared" si="1"/>
         <v>94.81</v>
       </c>
-      <c r="I36" s="221" t="s">
+      <c r="I36" s="219" t="s">
         <v>214</v>
       </c>
-      <c r="J36" s="222" t="s">
+      <c r="J36" s="220" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="87.5" thickBot="1">
-      <c r="A37" s="225"/>
-      <c r="B37" s="180" t="s">
+      <c r="A37" s="223"/>
+      <c r="B37" s="178" t="s">
         <v>271</v>
       </c>
       <c r="C37" s="150" t="s">
@@ -4267,252 +4377,252 @@
       <c r="D37" s="150" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="181">
+      <c r="E37" s="179">
         <v>39</v>
       </c>
       <c r="F37" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="182">
+      <c r="G37" s="180">
         <v>6.11</v>
       </c>
-      <c r="H37" s="183">
+      <c r="H37" s="181">
         <f t="shared" si="1"/>
         <v>238.29000000000002</v>
       </c>
-      <c r="I37" s="183"/>
-      <c r="J37" s="196" t="s">
+      <c r="I37" s="181"/>
+      <c r="J37" s="194" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="226" customFormat="1" ht="47" thickBot="1">
-      <c r="A38" s="225" t="s">
-        <v>421</v>
-      </c>
-      <c r="B38" s="185" t="s">
+    <row r="38" spans="1:10" s="224" customFormat="1" ht="47" thickBot="1">
+      <c r="A38" s="223" t="s">
+        <v>420</v>
+      </c>
+      <c r="B38" s="183" t="s">
         <v>219</v>
       </c>
       <c r="C38" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="D38" s="305" t="s">
+      <c r="D38" s="294" t="s">
+        <v>422</v>
+      </c>
+      <c r="E38" s="295" t="s">
         <v>423</v>
       </c>
-      <c r="E38" s="306" t="s">
-        <v>424</v>
-      </c>
       <c r="F38" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="187">
+      <c r="G38" s="185">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H38" s="188" t="e">
+      <c r="H38" s="186" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I38" s="188" t="s">
-        <v>2</v>
-      </c>
-      <c r="J38" s="189" t="s">
+      <c r="I38" s="186" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="187" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="85.25" customHeight="1" thickBot="1">
-      <c r="A39" s="225"/>
-      <c r="B39" s="190" t="s">
+      <c r="A39" s="223"/>
+      <c r="B39" s="188" t="s">
         <v>222</v>
       </c>
       <c r="C39" s="151" t="s">
         <v>225</v>
       </c>
       <c r="D39" s="151" t="s">
-        <v>422</v>
-      </c>
-      <c r="E39" s="191">
+        <v>421</v>
+      </c>
+      <c r="E39" s="189">
         <v>440</v>
       </c>
       <c r="F39" s="151"/>
-      <c r="G39" s="192">
+      <c r="G39" s="190">
         <v>1.55</v>
       </c>
-      <c r="H39" s="193">
+      <c r="H39" s="191">
         <f t="shared" si="1"/>
         <v>682</v>
       </c>
-      <c r="I39" s="193"/>
-      <c r="J39" s="194" t="s">
+      <c r="I39" s="191"/>
+      <c r="J39" s="192" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="73.25" customHeight="1" thickBot="1">
-      <c r="A40" s="225" t="s">
+      <c r="A40" s="223" t="s">
         <v>406</v>
       </c>
-      <c r="B40" s="197" t="s">
+      <c r="B40" s="195" t="s">
         <v>229</v>
       </c>
-      <c r="C40" s="198" t="s">
+      <c r="C40" s="196" t="s">
         <v>228</v>
       </c>
-      <c r="D40" s="198" t="s">
+      <c r="D40" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="E40" s="199">
+      <c r="E40" s="197">
         <v>110</v>
       </c>
-      <c r="F40" s="198"/>
-      <c r="G40" s="200">
+      <c r="F40" s="196"/>
+      <c r="G40" s="198">
         <v>1.79</v>
       </c>
-      <c r="H40" s="201">
+      <c r="H40" s="199">
         <f t="shared" si="1"/>
         <v>196.9</v>
       </c>
-      <c r="I40" s="201"/>
-      <c r="J40" s="184" t="s">
+      <c r="I40" s="199"/>
+      <c r="J40" s="182" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="226" customFormat="1" ht="91.25" customHeight="1" thickBot="1">
-      <c r="A41" s="225"/>
-      <c r="B41" s="217"/>
-      <c r="C41" s="218" t="s">
+    <row r="41" spans="1:10" s="224" customFormat="1" ht="91.25" customHeight="1" thickBot="1">
+      <c r="A41" s="223"/>
+      <c r="B41" s="215"/>
+      <c r="C41" s="216" t="s">
         <v>383</v>
       </c>
-      <c r="D41" s="218" t="s">
+      <c r="D41" s="216" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="219">
-        <v>2</v>
-      </c>
-      <c r="F41" s="218"/>
-      <c r="G41" s="220">
+      <c r="E41" s="217">
+        <v>2</v>
+      </c>
+      <c r="F41" s="216"/>
+      <c r="G41" s="218">
         <v>28.08</v>
       </c>
-      <c r="H41" s="221">
+      <c r="H41" s="219">
         <f t="shared" si="1"/>
         <v>56.16</v>
       </c>
-      <c r="I41" s="221"/>
-      <c r="J41" s="252" t="s">
+      <c r="I41" s="219"/>
+      <c r="J41" s="250" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="B43" s="224" t="s">
+      <c r="B43" s="222" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="36.5" thickBot="1">
-      <c r="A44" s="227" t="s">
+      <c r="A44" s="225" t="s">
         <v>401</v>
       </c>
-      <c r="B44" s="177" t="s">
+      <c r="B44" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="178" t="s">
+      <c r="C44" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="178" t="s">
+      <c r="D44" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="177" t="s">
+      <c r="E44" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="177" t="s">
+      <c r="F44" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="177" t="s">
+      <c r="G44" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="179" t="s">
+      <c r="H44" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="177" t="s">
+      <c r="I44" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="J44" s="177" t="s">
+      <c r="J44" s="175" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="226" customFormat="1" ht="63" thickTop="1" thickBot="1">
-      <c r="A45" s="227"/>
-      <c r="B45" s="217" t="s">
+    <row r="45" spans="1:10" s="224" customFormat="1" ht="63" thickTop="1" thickBot="1">
+      <c r="A45" s="225"/>
+      <c r="B45" s="215" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="218" t="s">
+      <c r="C45" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="218" t="s">
+      <c r="D45" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="219">
+      <c r="E45" s="217">
         <v>7</v>
       </c>
-      <c r="F45" s="218" t="s">
+      <c r="F45" s="216" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="220">
+      <c r="G45" s="218">
         <v>12.85</v>
       </c>
-      <c r="H45" s="221">
+      <c r="H45" s="219">
         <v>89.95</v>
       </c>
-      <c r="I45" s="221" t="s">
+      <c r="I45" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="J45" s="252" t="s">
+      <c r="J45" s="250" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16" thickBot="1">
-      <c r="A46" s="227"/>
-      <c r="B46" s="190" t="s">
+      <c r="A46" s="225"/>
+      <c r="B46" s="188" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="151"/>
       <c r="D46" s="151"/>
-      <c r="E46" s="191"/>
+      <c r="E46" s="189"/>
       <c r="F46" s="151"/>
-      <c r="G46" s="192"/>
-      <c r="H46" s="193"/>
-      <c r="I46" s="193"/>
-      <c r="J46" s="195"/>
-    </row>
-    <row r="47" spans="1:10" s="226" customFormat="1" ht="47" thickBot="1">
-      <c r="A47" s="227"/>
-      <c r="B47" s="217">
+      <c r="G46" s="190"/>
+      <c r="H46" s="191"/>
+      <c r="I46" s="191"/>
+      <c r="J46" s="193"/>
+    </row>
+    <row r="47" spans="1:10" s="224" customFormat="1" ht="47" thickBot="1">
+      <c r="A47" s="225"/>
+      <c r="B47" s="215">
         <v>11029200</v>
       </c>
-      <c r="C47" s="218" t="s">
+      <c r="C47" s="216" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="218" t="s">
+      <c r="D47" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="219">
+      <c r="E47" s="217">
         <v>6</v>
       </c>
-      <c r="F47" s="218" t="s">
+      <c r="F47" s="216" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="220">
+      <c r="G47" s="218">
         <v>29.51</v>
       </c>
-      <c r="H47" s="221">
+      <c r="H47" s="219">
         <v>177.06</v>
       </c>
-      <c r="I47" s="221" t="s">
+      <c r="I47" s="219" t="s">
         <v>39</v>
       </c>
-      <c r="J47" s="252" t="s">
+      <c r="J47" s="250" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="47" thickBot="1">
-      <c r="A48" s="227"/>
-      <c r="B48" s="190" t="s">
+      <c r="A48" s="225"/>
+      <c r="B48" s="188" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="151" t="s">
@@ -4521,93 +4631,93 @@
       <c r="D48" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="191">
+      <c r="E48" s="189">
         <v>115</v>
       </c>
       <c r="F48" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="G48" s="192">
+      <c r="G48" s="190">
         <v>0.69</v>
       </c>
-      <c r="H48" s="193">
+      <c r="H48" s="191">
         <f t="shared" ref="H48:H65" si="2">E48*G48</f>
         <v>79.349999999999994</v>
       </c>
-      <c r="I48" s="193" t="s">
+      <c r="I48" s="191" t="s">
         <v>47</v>
       </c>
-      <c r="J48" s="195" t="s">
+      <c r="J48" s="193" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="226" customFormat="1" ht="31.5" thickBot="1">
-      <c r="A49" s="227"/>
-      <c r="B49" s="217">
+    <row r="49" spans="1:10" s="224" customFormat="1" ht="31.5" thickBot="1">
+      <c r="A49" s="225"/>
+      <c r="B49" s="215">
         <v>22584104</v>
       </c>
-      <c r="C49" s="218" t="s">
+      <c r="C49" s="216" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="218" t="s">
+      <c r="D49" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="219">
+      <c r="E49" s="217">
         <v>6</v>
       </c>
-      <c r="F49" s="218" t="s">
+      <c r="F49" s="216" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="220">
+      <c r="G49" s="218">
         <v>18.239999999999998</v>
       </c>
-      <c r="H49" s="221">
+      <c r="H49" s="219">
         <f t="shared" si="2"/>
         <v>109.44</v>
       </c>
-      <c r="I49" s="221" t="s">
+      <c r="I49" s="219" t="s">
         <v>55</v>
       </c>
-      <c r="J49" s="252" t="s">
+      <c r="J49" s="250" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="226" customFormat="1" ht="31.5" thickBot="1">
-      <c r="A50" s="227"/>
-      <c r="B50" s="217">
+    <row r="50" spans="1:10" s="224" customFormat="1" ht="31.5" thickBot="1">
+      <c r="A50" s="225"/>
+      <c r="B50" s="215">
         <v>10400921</v>
       </c>
-      <c r="C50" s="218" t="s">
+      <c r="C50" s="216" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="218" t="s">
+      <c r="D50" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="219">
+      <c r="E50" s="217">
         <v>6</v>
       </c>
-      <c r="F50" s="218" t="s">
+      <c r="F50" s="216" t="s">
         <v>49</v>
       </c>
-      <c r="G50" s="220">
+      <c r="G50" s="218">
         <v>17.649999999999999</v>
       </c>
-      <c r="H50" s="221">
+      <c r="H50" s="219">
         <f t="shared" si="2"/>
         <v>105.89999999999999</v>
       </c>
-      <c r="I50" s="221" t="s">
+      <c r="I50" s="219" t="s">
         <v>54</v>
       </c>
-      <c r="J50" s="252" t="s">
+      <c r="J50" s="250" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="226" customFormat="1" ht="52.5" thickBot="1">
-      <c r="A51" s="228" t="s">
+    <row r="51" spans="1:10" s="224" customFormat="1" ht="52.5" thickBot="1">
+      <c r="A51" s="226" t="s">
         <v>404</v>
       </c>
-      <c r="B51" s="217">
+      <c r="B51" s="215">
         <v>556138647</v>
       </c>
       <c r="C51" s="74" t="s">
@@ -4616,29 +4726,29 @@
       <c r="D51" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="186">
+      <c r="E51" s="184">
         <v>145</v>
       </c>
       <c r="F51" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="187">
+      <c r="G51" s="185">
         <v>5.2</v>
       </c>
-      <c r="H51" s="188">
+      <c r="H51" s="186">
         <f t="shared" si="2"/>
         <v>754</v>
       </c>
-      <c r="I51" s="188" t="s">
+      <c r="I51" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="J51" s="211" t="s">
+      <c r="J51" s="209" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="226" customFormat="1" ht="31.5" thickBot="1">
-      <c r="A52" s="227"/>
-      <c r="B52" s="217">
+    <row r="52" spans="1:10" s="224" customFormat="1" ht="31.5" thickBot="1">
+      <c r="A52" s="225"/>
+      <c r="B52" s="215">
         <v>15166</v>
       </c>
       <c r="C52" s="74" t="s">
@@ -4647,31 +4757,31 @@
       <c r="D52" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="186">
+      <c r="E52" s="184">
         <v>4</v>
       </c>
       <c r="F52" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="G52" s="187">
+      <c r="G52" s="185">
         <v>32</v>
       </c>
-      <c r="H52" s="188">
+      <c r="H52" s="186">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="I52" s="188" t="s">
+      <c r="I52" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="211" t="s">
+      <c r="J52" s="209" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="226" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A53" s="227" t="s">
+    <row r="53" spans="1:10" s="224" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
+      <c r="A53" s="225" t="s">
         <v>402</v>
       </c>
-      <c r="B53" s="217">
+      <c r="B53" s="215">
         <v>564439325</v>
       </c>
       <c r="C53" s="74" t="s">
@@ -4680,91 +4790,97 @@
       <c r="D53" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="186">
+      <c r="E53" s="184">
         <v>115</v>
       </c>
       <c r="F53" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="G53" s="187">
+      <c r="G53" s="185">
         <v>4.9400000000000004</v>
       </c>
-      <c r="H53" s="188">
+      <c r="H53" s="186">
         <f t="shared" si="2"/>
         <v>568.1</v>
       </c>
-      <c r="I53" s="188" t="s">
+      <c r="I53" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="J53" s="211" t="s">
+      <c r="J53" s="209" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="47" thickBot="1">
-      <c r="A54" s="227"/>
-      <c r="B54" s="190" t="s">
+    <row r="54" spans="1:10" s="224" customFormat="1" ht="47" thickBot="1">
+      <c r="A54" s="225" t="s">
+        <v>430</v>
+      </c>
+      <c r="B54" s="215" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="150" t="s">
+      <c r="C54" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="150" t="s">
+      <c r="D54" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="181">
-        <v>2</v>
-      </c>
-      <c r="F54" s="150" t="s">
+      <c r="E54" s="184">
+        <v>2</v>
+      </c>
+      <c r="F54" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="G54" s="182">
+      <c r="G54" s="185">
         <v>89.92</v>
       </c>
-      <c r="H54" s="183">
+      <c r="H54" s="186">
         <f t="shared" si="2"/>
         <v>179.84</v>
       </c>
-      <c r="I54" s="183" t="s">
+      <c r="I54" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="J54" s="229" t="s">
+      <c r="J54" s="307" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="47" thickBot="1">
-      <c r="A55" s="227"/>
-      <c r="B55" s="190" t="s">
+    <row r="55" spans="1:10" s="224" customFormat="1" ht="47" thickBot="1">
+      <c r="A55" s="225" t="s">
+        <v>430</v>
+      </c>
+      <c r="B55" s="215" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="150" t="s">
+      <c r="C55" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="150" t="s">
+      <c r="D55" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="181">
+      <c r="E55" s="184">
         <v>12</v>
       </c>
-      <c r="F55" s="150" t="s">
+      <c r="F55" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="G55" s="182">
+      <c r="G55" s="185">
         <v>28.62</v>
       </c>
-      <c r="H55" s="183">
+      <c r="H55" s="186">
         <f t="shared" si="2"/>
         <v>343.44</v>
       </c>
-      <c r="I55" s="183" t="s">
+      <c r="I55" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="J55" s="196" t="s">
+      <c r="J55" s="209" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="226" customFormat="1" ht="47" thickBot="1">
-      <c r="A56" s="227"/>
-      <c r="B56" s="230">
+    <row r="56" spans="1:10" s="224" customFormat="1" ht="47" thickBot="1">
+      <c r="A56" s="223" t="s">
+        <v>412</v>
+      </c>
+      <c r="B56" s="228">
         <v>625277</v>
       </c>
       <c r="C56" s="74" t="s">
@@ -4773,124 +4889,126 @@
       <c r="D56" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="186">
+      <c r="E56" s="184">
         <v>5</v>
       </c>
       <c r="F56" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="G56" s="187">
+      <c r="G56" s="185">
         <v>24</v>
       </c>
-      <c r="H56" s="188">
+      <c r="H56" s="186">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="I56" s="188" t="s">
-        <v>2</v>
-      </c>
-      <c r="J56" s="211" t="s">
+      <c r="I56" s="186" t="s">
+        <v>2</v>
+      </c>
+      <c r="J56" s="209" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="226" customFormat="1" ht="31.5" thickBot="1">
-      <c r="A57" s="227"/>
-      <c r="B57" s="217" t="s">
+    <row r="57" spans="1:10" s="224" customFormat="1" ht="31.5" thickBot="1">
+      <c r="A57" s="223" t="s">
+        <v>412</v>
+      </c>
+      <c r="B57" s="215" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="218" t="s">
+      <c r="C57" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="218" t="s">
+      <c r="D57" s="216" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="219">
+      <c r="E57" s="217">
         <v>6</v>
       </c>
-      <c r="F57" s="218" t="s">
+      <c r="F57" s="216" t="s">
         <v>88</v>
       </c>
-      <c r="G57" s="220">
+      <c r="G57" s="218">
         <v>21.15</v>
       </c>
-      <c r="H57" s="221">
+      <c r="H57" s="219">
         <f t="shared" si="2"/>
         <v>126.89999999999999</v>
       </c>
-      <c r="I57" s="221"/>
-      <c r="J57" s="252" t="s">
+      <c r="I57" s="219"/>
+      <c r="J57" s="250" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="226" customFormat="1" ht="47" thickBot="1">
-      <c r="A58" s="225" t="s">
+    <row r="58" spans="1:10" s="224" customFormat="1" ht="47" thickBot="1">
+      <c r="A58" s="223" t="s">
         <v>412</v>
       </c>
-      <c r="B58" s="217" t="s">
+      <c r="B58" s="215" t="s">
         <v>374</v>
       </c>
-      <c r="C58" s="218" t="s">
+      <c r="C58" s="216" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="218" t="s">
+      <c r="D58" s="216" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="219">
+      <c r="E58" s="217">
         <v>3</v>
       </c>
-      <c r="F58" s="218" t="s">
+      <c r="F58" s="216" t="s">
         <v>173</v>
       </c>
-      <c r="G58" s="220">
+      <c r="G58" s="218">
         <v>81.27</v>
       </c>
-      <c r="H58" s="221">
+      <c r="H58" s="219">
         <f t="shared" si="2"/>
         <v>243.81</v>
       </c>
-      <c r="I58" s="221" t="s">
-        <v>2</v>
-      </c>
-      <c r="J58" s="252" t="s">
+      <c r="I58" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="250" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="226" customFormat="1" ht="31.5" thickBot="1">
-      <c r="A59" s="227"/>
-      <c r="B59" s="217">
+    <row r="59" spans="1:10" s="224" customFormat="1" ht="31.5" thickBot="1">
+      <c r="A59" s="225"/>
+      <c r="B59" s="215">
         <v>9171119</v>
       </c>
-      <c r="C59" s="218" t="s">
+      <c r="C59" s="216" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="218" t="s">
+      <c r="D59" s="216" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="219">
-        <v>2</v>
-      </c>
-      <c r="F59" s="218" t="s">
+      <c r="E59" s="217">
+        <v>2</v>
+      </c>
+      <c r="F59" s="216" t="s">
         <v>87</v>
       </c>
-      <c r="G59" s="220">
+      <c r="G59" s="218">
         <v>32.49</v>
       </c>
-      <c r="H59" s="221">
+      <c r="H59" s="219">
         <f t="shared" si="2"/>
         <v>64.98</v>
       </c>
-      <c r="I59" s="221" t="s">
+      <c r="I59" s="219" t="s">
         <v>89</v>
       </c>
-      <c r="J59" s="252" t="s">
+      <c r="J59" s="250" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="226" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A60" s="227" t="s">
+    <row r="60" spans="1:10" s="224" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
+      <c r="A60" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="B60" s="217">
+      <c r="B60" s="215">
         <v>565320669</v>
       </c>
       <c r="C60" s="74" t="s">
@@ -4899,29 +5017,29 @@
       <c r="D60" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="186">
+      <c r="E60" s="184">
         <v>110</v>
       </c>
       <c r="F60" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="G60" s="187">
+      <c r="G60" s="185">
         <v>0.88</v>
       </c>
-      <c r="H60" s="188">
+      <c r="H60" s="186">
         <f t="shared" si="2"/>
         <v>96.8</v>
       </c>
-      <c r="I60" s="188" t="s">
+      <c r="I60" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="J60" s="211" t="s">
+      <c r="J60" s="209" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="47" thickBot="1">
-      <c r="A61" s="227"/>
-      <c r="B61" s="190" t="s">
+      <c r="A61" s="225"/>
+      <c r="B61" s="188" t="s">
         <v>369</v>
       </c>
       <c r="C61" s="151" t="s">
@@ -4930,62 +5048,62 @@
       <c r="D61" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="191">
+      <c r="E61" s="189">
         <v>220</v>
       </c>
       <c r="F61" s="151" t="s">
         <v>371</v>
       </c>
-      <c r="G61" s="192">
+      <c r="G61" s="190">
         <v>1.39</v>
       </c>
-      <c r="H61" s="193">
+      <c r="H61" s="191">
         <f t="shared" si="2"/>
         <v>305.79999999999995</v>
       </c>
-      <c r="I61" s="193" t="s">
+      <c r="I61" s="191" t="s">
         <v>373</v>
       </c>
-      <c r="J61" s="195" t="s">
+      <c r="J61" s="193" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="238" customFormat="1" ht="31.5" thickBot="1">
-      <c r="A62" s="231" t="s">
+    <row r="62" spans="1:10" s="236" customFormat="1" ht="31.5" thickBot="1">
+      <c r="A62" s="229" t="s">
         <v>408</v>
       </c>
-      <c r="B62" s="232">
+      <c r="B62" s="230">
         <v>178257</v>
       </c>
-      <c r="C62" s="233" t="s">
+      <c r="C62" s="231" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="233" t="s">
+      <c r="D62" s="231" t="s">
         <v>100</v>
       </c>
-      <c r="E62" s="234">
+      <c r="E62" s="232">
         <v>9</v>
       </c>
-      <c r="F62" s="233" t="s">
+      <c r="F62" s="231" t="s">
         <v>101</v>
       </c>
-      <c r="G62" s="235">
+      <c r="G62" s="233">
         <v>24</v>
       </c>
-      <c r="H62" s="236">
+      <c r="H62" s="234">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="I62" s="236" t="s">
+      <c r="I62" s="234" t="s">
         <v>103</v>
       </c>
-      <c r="J62" s="237" t="s">
+      <c r="J62" s="235" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16" thickBot="1">
-      <c r="A63" s="227"/>
-      <c r="B63" s="190" t="s">
+      <c r="A63" s="225"/>
+      <c r="B63" s="188" t="s">
         <v>375</v>
       </c>
       <c r="C63" s="151" t="s">
@@ -4994,60 +5112,62 @@
       <c r="D63" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="191">
+      <c r="E63" s="189">
         <v>0</v>
       </c>
       <c r="F63" s="151">
         <v>0</v>
       </c>
-      <c r="G63" s="192">
+      <c r="G63" s="190">
         <v>0</v>
       </c>
-      <c r="H63" s="193">
+      <c r="H63" s="191">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="193" t="s">
+      <c r="I63" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="J63" s="239" t="s">
+      <c r="J63" s="237" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="226" customFormat="1" ht="62.5" thickBot="1">
-      <c r="A64" s="227"/>
-      <c r="B64" s="217" t="s">
+    <row r="64" spans="1:10" s="224" customFormat="1" ht="62.5" thickBot="1">
+      <c r="A64" s="223" t="s">
+        <v>412</v>
+      </c>
+      <c r="B64" s="215" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="218" t="s">
+      <c r="C64" s="216" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="218" t="s">
+      <c r="D64" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="219">
+      <c r="E64" s="217">
         <v>3</v>
       </c>
-      <c r="F64" s="218" t="s">
+      <c r="F64" s="216" t="s">
         <v>112</v>
       </c>
-      <c r="G64" s="220">
+      <c r="G64" s="218">
         <v>33.49</v>
       </c>
-      <c r="H64" s="221">
+      <c r="H64" s="219">
         <f t="shared" si="2"/>
         <v>100.47</v>
       </c>
-      <c r="I64" s="221" t="s">
+      <c r="I64" s="219" t="s">
         <v>113</v>
       </c>
-      <c r="J64" s="252" t="s">
+      <c r="J64" s="250" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="226" customFormat="1" ht="47" thickBot="1">
-      <c r="A65" s="227"/>
-      <c r="B65" s="217">
+    <row r="65" spans="1:10" s="224" customFormat="1" ht="47" thickBot="1">
+      <c r="A65" s="225"/>
+      <c r="B65" s="215">
         <v>843342</v>
       </c>
       <c r="C65" s="74" t="s">
@@ -5056,37 +5176,37 @@
       <c r="D65" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="186">
+      <c r="E65" s="184">
         <v>3</v>
       </c>
       <c r="F65" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="G65" s="187">
+      <c r="G65" s="185">
         <v>36</v>
       </c>
-      <c r="H65" s="188">
+      <c r="H65" s="186">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="I65" s="188" t="s">
+      <c r="I65" s="186" t="s">
         <v>170</v>
       </c>
-      <c r="J65" s="211" t="s">
+      <c r="J65" s="209" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.5">
-      <c r="A66" s="227"/>
+      <c r="A66" s="225"/>
     </row>
     <row r="67" spans="1:10" ht="16" thickBot="1">
-      <c r="A67" s="227"/>
-      <c r="B67" s="224" t="s">
+      <c r="A67" s="225"/>
+      <c r="B67" s="222" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="47" thickBot="1">
-      <c r="B68" s="190" t="s">
+      <c r="B68" s="188" t="s">
         <v>138</v>
       </c>
       <c r="C68" s="151" t="s">
@@ -5095,28 +5215,28 @@
       <c r="D68" s="151" t="s">
         <v>139</v>
       </c>
-      <c r="E68" s="191">
+      <c r="E68" s="189">
         <v>2750</v>
       </c>
       <c r="F68" s="151" t="s">
         <v>140</v>
       </c>
-      <c r="G68" s="192">
+      <c r="G68" s="190">
         <v>0.47</v>
       </c>
-      <c r="H68" s="193">
+      <c r="H68" s="191">
         <f t="shared" ref="H68:H84" si="3">E68*G68</f>
         <v>1292.5</v>
       </c>
-      <c r="I68" s="202" t="s">
+      <c r="I68" s="200" t="s">
         <v>141</v>
       </c>
-      <c r="J68" s="195" t="s">
+      <c r="J68" s="193" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="31.5" thickBot="1">
-      <c r="B69" s="190">
+      <c r="B69" s="188">
         <v>1100113439</v>
       </c>
       <c r="C69" s="151" t="s">
@@ -5125,53 +5245,53 @@
       <c r="D69" s="151" t="s">
         <v>143</v>
       </c>
-      <c r="E69" s="191">
+      <c r="E69" s="189">
         <v>53</v>
       </c>
       <c r="F69" s="151" t="s">
         <v>159</v>
       </c>
-      <c r="G69" s="192">
+      <c r="G69" s="190">
         <v>7.99</v>
       </c>
-      <c r="H69" s="193">
+      <c r="H69" s="191">
         <f t="shared" si="3"/>
         <v>423.47</v>
       </c>
-      <c r="I69" s="193"/>
-      <c r="J69" s="195" t="s">
+      <c r="I69" s="191"/>
+      <c r="J69" s="193" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="B70" s="190" t="s">
+      <c r="B70" s="188" t="s">
         <v>349</v>
       </c>
       <c r="C70" s="151" t="s">
         <v>347</v>
       </c>
-      <c r="D70" s="190" t="s">
+      <c r="D70" s="188" t="s">
         <v>348</v>
       </c>
-      <c r="E70" s="191">
+      <c r="E70" s="189">
         <v>115</v>
       </c>
       <c r="F70" s="151" t="s">
         <v>350</v>
       </c>
-      <c r="G70" s="192">
+      <c r="G70" s="190">
         <v>1.27</v>
       </c>
-      <c r="H70" s="193">
+      <c r="H70" s="191">
         <v>142.24</v>
       </c>
-      <c r="I70" s="193"/>
-      <c r="J70" s="195" t="s">
+      <c r="I70" s="191"/>
+      <c r="J70" s="193" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="73" thickBot="1">
-      <c r="B71" s="190" t="s">
+      <c r="B71" s="188" t="s">
         <v>145</v>
       </c>
       <c r="C71" s="151" t="s">
@@ -5180,27 +5300,29 @@
       <c r="D71" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="E71" s="191">
+      <c r="E71" s="189">
         <v>115</v>
       </c>
       <c r="F71" s="151" t="s">
         <v>158</v>
       </c>
-      <c r="G71" s="192">
+      <c r="G71" s="190">
         <v>7.95</v>
       </c>
-      <c r="H71" s="193">
+      <c r="H71" s="191">
         <f t="shared" si="3"/>
         <v>914.25</v>
       </c>
-      <c r="I71" s="193"/>
-      <c r="J71" s="195" t="s">
+      <c r="I71" s="191"/>
+      <c r="J71" s="193" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="226" customFormat="1" ht="97.25" customHeight="1" thickBot="1">
-      <c r="A72" s="225"/>
-      <c r="B72" s="185" t="s">
+    <row r="72" spans="1:10" s="224" customFormat="1" ht="97.25" customHeight="1" thickBot="1">
+      <c r="A72" s="223" t="s">
+        <v>412</v>
+      </c>
+      <c r="B72" s="183" t="s">
         <v>151</v>
       </c>
       <c r="C72" s="74" t="s">
@@ -5209,59 +5331,61 @@
       <c r="D72" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="E72" s="186">
+      <c r="E72" s="184">
         <v>115</v>
       </c>
       <c r="F72" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="G72" s="187">
+      <c r="G72" s="185">
         <v>6.89</v>
       </c>
-      <c r="H72" s="188">
+      <c r="H72" s="186">
         <f>E72*G72</f>
         <v>792.34999999999991</v>
       </c>
-      <c r="I72" s="188" t="s">
+      <c r="I72" s="186" t="s">
         <v>234</v>
       </c>
-      <c r="J72" s="211" t="s">
+      <c r="J72" s="209" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="26.4" customHeight="1" thickBot="1">
-      <c r="B73" s="203" t="s">
+      <c r="B73" s="201" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="204" t="s">
+      <c r="C73" s="202" t="s">
         <v>152</v>
       </c>
-      <c r="D73" s="204" t="s">
+      <c r="D73" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="E73" s="205">
+      <c r="E73" s="203">
         <v>2709</v>
       </c>
-      <c r="F73" s="204" t="s">
+      <c r="F73" s="202" t="s">
         <v>158</v>
       </c>
-      <c r="G73" s="206">
+      <c r="G73" s="204">
         <v>0.65</v>
       </c>
-      <c r="H73" s="193">
+      <c r="H73" s="191">
         <f t="shared" si="3"/>
         <v>1760.8500000000001</v>
       </c>
-      <c r="I73" s="207" t="s">
-        <v>2</v>
-      </c>
-      <c r="J73" s="195" t="s">
+      <c r="I73" s="205" t="s">
+        <v>2</v>
+      </c>
+      <c r="J73" s="193" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="226" customFormat="1" ht="39.65" customHeight="1" thickBot="1">
-      <c r="A74" s="225"/>
-      <c r="B74" s="253" t="s">
+    <row r="74" spans="1:10" s="224" customFormat="1" ht="39.65" customHeight="1" thickBot="1">
+      <c r="A74" s="223" t="s">
+        <v>412</v>
+      </c>
+      <c r="B74" s="251" t="s">
         <v>388</v>
       </c>
       <c r="C74" s="74" t="s">
@@ -5270,24 +5394,24 @@
       <c r="D74" s="74" t="s">
         <v>386</v>
       </c>
-      <c r="E74" s="186">
+      <c r="E74" s="184">
         <v>115</v>
       </c>
       <c r="F74" s="74"/>
-      <c r="G74" s="187">
+      <c r="G74" s="185">
         <v>5.98</v>
       </c>
-      <c r="H74" s="254">
+      <c r="H74" s="252">
         <f t="shared" si="3"/>
         <v>687.7</v>
       </c>
-      <c r="I74" s="254"/>
-      <c r="J74" s="255" t="s">
+      <c r="I74" s="252"/>
+      <c r="J74" s="253" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="31.5" thickBot="1">
-      <c r="B75" s="190" t="s">
+      <c r="B75" s="188" t="s">
         <v>71</v>
       </c>
       <c r="C75" s="151" t="s">
@@ -5296,24 +5420,24 @@
       <c r="D75" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="E75" s="191">
+      <c r="E75" s="189">
         <v>550</v>
       </c>
       <c r="F75" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="G75" s="192"/>
-      <c r="H75" s="193">
+      <c r="G75" s="190"/>
+      <c r="H75" s="191">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I75" s="208" t="s">
-        <v>2</v>
-      </c>
-      <c r="J75" s="209"/>
+      <c r="I75" s="206" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" s="207"/>
     </row>
     <row r="76" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="B76" s="190" t="s">
+      <c r="B76" s="188" t="s">
         <v>354</v>
       </c>
       <c r="C76" s="151" t="s">
@@ -5322,56 +5446,57 @@
       <c r="D76" s="151" t="s">
         <v>353</v>
       </c>
-      <c r="E76" s="191">
+      <c r="E76" s="189">
         <v>63</v>
       </c>
       <c r="F76" s="151" t="s">
         <v>357</v>
       </c>
-      <c r="G76" s="192">
+      <c r="G76" s="190">
         <v>0.24</v>
       </c>
-      <c r="H76" s="193">
+      <c r="H76" s="191">
         <f t="shared" si="3"/>
         <v>15.12</v>
       </c>
-      <c r="I76" s="208" t="s">
+      <c r="I76" s="206" t="s">
         <v>362</v>
       </c>
-      <c r="J76" s="209" t="s">
+      <c r="J76" s="207" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="62.5" thickBot="1">
-      <c r="B77" s="190" t="s">
+    <row r="77" spans="1:10" s="316" customFormat="1" ht="62.5" thickBot="1">
+      <c r="A77" s="309"/>
+      <c r="B77" s="310" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="151" t="s">
+      <c r="C77" s="311" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="151" t="s">
+      <c r="D77" s="311" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="191">
+      <c r="E77" s="312">
         <v>115</v>
       </c>
-      <c r="F77" s="151" t="s">
+      <c r="F77" s="311" t="s">
         <v>38</v>
       </c>
-      <c r="G77" s="192"/>
-      <c r="H77" s="193">
+      <c r="G77" s="313"/>
+      <c r="H77" s="314">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I77" s="193" t="s">
+      <c r="I77" s="314" t="s">
         <v>36</v>
       </c>
-      <c r="J77" s="195" t="s">
+      <c r="J77" s="315" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="53.4" customHeight="1" thickBot="1">
-      <c r="B78" s="190" t="s">
+      <c r="B78" s="188" t="s">
         <v>166</v>
       </c>
       <c r="C78" s="151" t="s">
@@ -5380,29 +5505,31 @@
       <c r="D78" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="E78" s="191">
+      <c r="E78" s="189">
         <v>3</v>
       </c>
       <c r="F78" s="151" t="s">
         <v>160</v>
       </c>
-      <c r="G78" s="192">
+      <c r="G78" s="190">
         <v>6.5</v>
       </c>
-      <c r="H78" s="193">
+      <c r="H78" s="191">
         <f t="shared" si="3"/>
         <v>19.5</v>
       </c>
-      <c r="I78" s="193" t="s">
-        <v>2</v>
-      </c>
-      <c r="J78" s="195" t="s">
+      <c r="I78" s="191" t="s">
+        <v>2</v>
+      </c>
+      <c r="J78" s="193" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="226" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A79" s="225"/>
-      <c r="B79" s="185" t="s">
+    <row r="79" spans="1:10" s="224" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A79" s="223" t="s">
+        <v>412</v>
+      </c>
+      <c r="B79" s="183" t="s">
         <v>161</v>
       </c>
       <c r="C79" s="74" t="s">
@@ -5411,26 +5538,26 @@
       <c r="D79" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="E79" s="186">
+      <c r="E79" s="184">
         <v>19</v>
       </c>
       <c r="F79" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="G79" s="187">
+      <c r="G79" s="185">
         <v>11.59</v>
       </c>
-      <c r="H79" s="188">
+      <c r="H79" s="186">
         <f t="shared" si="3"/>
         <v>220.21</v>
       </c>
-      <c r="I79" s="188"/>
-      <c r="J79" s="211" t="s">
+      <c r="I79" s="186"/>
+      <c r="J79" s="209" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="37.25" customHeight="1" thickBot="1">
-      <c r="B80" s="190" t="s">
+      <c r="B80" s="188" t="s">
         <v>230</v>
       </c>
       <c r="C80" s="151" t="s">
@@ -5439,46 +5566,46 @@
       <c r="D80" s="151" t="s">
         <v>139</v>
       </c>
-      <c r="E80" s="191">
+      <c r="E80" s="189">
         <v>14</v>
       </c>
       <c r="F80" s="151">
         <v>1</v>
       </c>
-      <c r="G80" s="192">
+      <c r="G80" s="190">
         <v>2.52</v>
       </c>
-      <c r="H80" s="193">
+      <c r="H80" s="191">
         <f t="shared" si="3"/>
         <v>35.28</v>
       </c>
-      <c r="I80" s="193"/>
-      <c r="J80" s="195" t="s">
+      <c r="I80" s="191"/>
+      <c r="J80" s="193" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="78" thickBot="1">
-      <c r="B81" s="190"/>
+      <c r="B81" s="188"/>
       <c r="C81" s="151" t="s">
         <v>156</v>
       </c>
       <c r="D81" s="151" t="s">
         <v>157</v>
       </c>
-      <c r="E81" s="191"/>
+      <c r="E81" s="189"/>
       <c r="F81" s="151"/>
-      <c r="G81" s="192"/>
-      <c r="H81" s="193">
+      <c r="G81" s="190"/>
+      <c r="H81" s="191">
         <f>E81*G81</f>
         <v>0</v>
       </c>
-      <c r="I81" s="193" t="s">
+      <c r="I81" s="191" t="s">
         <v>351</v>
       </c>
-      <c r="J81" s="195"/>
+      <c r="J81" s="193"/>
     </row>
     <row r="82" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="B82" s="190" t="s">
+      <c r="B82" s="188" t="s">
         <v>364</v>
       </c>
       <c r="C82" s="151" t="s">
@@ -5487,56 +5614,59 @@
       <c r="D82" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="E82" s="191">
+      <c r="E82" s="189">
         <v>3</v>
       </c>
       <c r="F82" s="151" t="s">
         <v>366</v>
       </c>
-      <c r="G82" s="192">
+      <c r="G82" s="190">
         <v>1.49</v>
       </c>
-      <c r="H82" s="193">
+      <c r="H82" s="191">
         <f t="shared" si="3"/>
         <v>4.47</v>
       </c>
-      <c r="I82" s="193"/>
-      <c r="J82" s="195" t="s">
+      <c r="I82" s="191"/>
+      <c r="J82" s="193" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="67.25" customHeight="1" thickBot="1">
-      <c r="B83" s="180" t="s">
+    <row r="83" spans="1:10" s="224" customFormat="1" ht="67.25" customHeight="1" thickBot="1">
+      <c r="A83" s="223" t="s">
+        <v>427</v>
+      </c>
+      <c r="B83" s="183" t="s">
         <v>361</v>
       </c>
-      <c r="C83" s="150" t="s">
+      <c r="C83" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="D83" s="150" t="s">
+      <c r="D83" s="74" t="s">
         <v>359</v>
       </c>
-      <c r="E83" s="181">
+      <c r="E83" s="184">
         <v>18</v>
       </c>
-      <c r="F83" s="150" t="s">
+      <c r="F83" s="74" t="s">
         <v>367</v>
       </c>
-      <c r="G83" s="182">
+      <c r="G83" s="185">
         <v>1</v>
       </c>
-      <c r="H83" s="183">
+      <c r="H83" s="186">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="I83" s="183" t="s">
+      <c r="I83" s="186" t="s">
         <v>360</v>
       </c>
-      <c r="J83" s="196" t="s">
+      <c r="J83" s="209" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="31.5" thickBot="1">
-      <c r="B84" s="190" t="s">
+      <c r="B84" s="188" t="s">
         <v>392</v>
       </c>
       <c r="C84" s="151" t="s">
@@ -5545,129 +5675,132 @@
       <c r="D84" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="E84" s="191">
+      <c r="E84" s="189">
         <v>11</v>
       </c>
       <c r="F84" s="151" t="s">
         <v>390</v>
       </c>
-      <c r="G84" s="192">
+      <c r="G84" s="190">
         <v>7.91</v>
       </c>
-      <c r="H84" s="193">
+      <c r="H84" s="191">
         <f t="shared" si="3"/>
         <v>87.01</v>
       </c>
-      <c r="I84" s="193" t="s">
-        <v>2</v>
-      </c>
-      <c r="J84" s="195"/>
+      <c r="I84" s="191" t="s">
+        <v>2</v>
+      </c>
+      <c r="J84" s="193"/>
     </row>
     <row r="86" spans="1:10" ht="15.5">
-      <c r="B86" s="210" t="s">
+      <c r="B86" s="208" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="36.5" thickBot="1">
-      <c r="B87" s="177" t="s">
+      <c r="B87" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C87" s="178" t="s">
+      <c r="C87" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="178" t="s">
+      <c r="D87" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="177" t="s">
+      <c r="E87" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="177" t="s">
+      <c r="F87" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="G87" s="177" t="s">
+      <c r="G87" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="H87" s="179" t="s">
+      <c r="H87" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="I87" s="177" t="s">
+      <c r="I87" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="J87" s="177" t="s">
+      <c r="J87" s="175" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="73.5" thickTop="1" thickBot="1">
-      <c r="B88" s="190"/>
+      <c r="B88" s="188"/>
       <c r="C88" s="150" t="s">
         <v>175</v>
       </c>
       <c r="D88" s="150" t="s">
         <v>135</v>
       </c>
-      <c r="E88" s="181">
+      <c r="E88" s="179">
         <v>120</v>
       </c>
       <c r="F88" s="150"/>
-      <c r="G88" s="182">
+      <c r="G88" s="180">
         <v>6.5</v>
       </c>
-      <c r="H88" s="183">
+      <c r="H88" s="181">
         <v>780</v>
       </c>
-      <c r="I88" s="183"/>
-      <c r="J88" s="229" t="s">
+      <c r="I88" s="181"/>
+      <c r="J88" s="227" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="73" thickBot="1">
-      <c r="B89" s="190"/>
+      <c r="B89" s="188"/>
       <c r="C89" s="150" t="s">
         <v>176</v>
       </c>
       <c r="D89" s="150" t="s">
         <v>135</v>
       </c>
-      <c r="E89" s="181">
+      <c r="E89" s="179">
         <v>120</v>
       </c>
       <c r="F89" s="150"/>
-      <c r="G89" s="182">
+      <c r="G89" s="180">
         <v>6.5</v>
       </c>
-      <c r="H89" s="183">
+      <c r="H89" s="181">
         <v>780</v>
       </c>
-      <c r="I89" s="183"/>
-      <c r="J89" s="229" t="s">
+      <c r="I89" s="181"/>
+      <c r="J89" s="227" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="73" thickBot="1">
-      <c r="B90" s="190"/>
+      <c r="B90" s="188"/>
       <c r="C90" s="150" t="s">
         <v>177</v>
       </c>
       <c r="D90" s="150" t="s">
         <v>135</v>
       </c>
-      <c r="E90" s="181">
+      <c r="E90" s="179">
         <v>120</v>
       </c>
       <c r="F90" s="150"/>
-      <c r="G90" s="182">
+      <c r="G90" s="180">
         <v>6.5</v>
       </c>
-      <c r="H90" s="183">
+      <c r="H90" s="181">
         <v>780</v>
       </c>
-      <c r="I90" s="183"/>
-      <c r="J90" s="196" t="s">
+      <c r="I90" s="181"/>
+      <c r="J90" s="194" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="73" thickBot="1">
-      <c r="B91" s="190" t="s">
+      <c r="A91" s="308" t="s">
+        <v>431</v>
+      </c>
+      <c r="B91" s="188" t="s">
         <v>238</v>
       </c>
       <c r="C91" s="151" t="s">
@@ -5676,82 +5809,87 @@
       <c r="D91" s="151" t="s">
         <v>239</v>
       </c>
-      <c r="E91" s="191">
+      <c r="E91" s="189">
         <v>600</v>
       </c>
       <c r="F91" s="151"/>
-      <c r="G91" s="192">
+      <c r="G91" s="190">
         <v>0.59</v>
       </c>
-      <c r="H91" s="193">
+      <c r="H91" s="191">
         <v>354</v>
       </c>
-      <c r="I91" s="193"/>
-      <c r="J91" s="195" t="s">
+      <c r="I91" s="191"/>
+      <c r="J91" s="193" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="226" customFormat="1" ht="87.5" thickBot="1">
-      <c r="A92" s="225"/>
-      <c r="B92" s="185"/>
+    <row r="92" spans="1:10" s="224" customFormat="1" ht="87.5" thickBot="1">
+      <c r="A92" s="223" t="s">
+        <v>412</v>
+      </c>
+      <c r="B92" s="183"/>
       <c r="C92" s="74" t="s">
         <v>179</v>
       </c>
       <c r="D92" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="E92" s="186">
+      <c r="E92" s="184">
         <v>6</v>
       </c>
       <c r="F92" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="G92" s="187">
+      <c r="G92" s="185">
         <v>3.32</v>
       </c>
-      <c r="H92" s="188">
+      <c r="H92" s="186">
         <f t="shared" ref="H92:H101" si="4">E92*G92</f>
         <v>19.919999999999998</v>
       </c>
-      <c r="I92" s="188" t="s">
-        <v>2</v>
-      </c>
-      <c r="J92" s="211" t="s">
+      <c r="I92" s="186" t="s">
+        <v>2</v>
+      </c>
+      <c r="J92" s="209" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="73" thickBot="1">
-      <c r="B93" s="180" t="s">
+    <row r="93" spans="1:10" s="224" customFormat="1" ht="73" thickBot="1">
+      <c r="A93" s="223" t="s">
+        <v>428</v>
+      </c>
+      <c r="B93" s="183" t="s">
         <v>244</v>
       </c>
-      <c r="C93" s="150" t="s">
+      <c r="C93" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="D93" s="150" t="s">
+      <c r="D93" s="74" t="s">
         <v>245</v>
       </c>
-      <c r="E93" s="181">
+      <c r="E93" s="184">
         <v>350</v>
       </c>
-      <c r="F93" s="150" t="s">
-        <v>2</v>
-      </c>
-      <c r="G93" s="182">
+      <c r="F93" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="G93" s="185">
         <v>1</v>
       </c>
-      <c r="H93" s="183">
+      <c r="H93" s="186">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
-      <c r="I93" s="183" t="s">
-        <v>2</v>
-      </c>
-      <c r="J93" s="196" t="s">
+      <c r="I93" s="186" t="s">
+        <v>2</v>
+      </c>
+      <c r="J93" s="209" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="73" thickBot="1">
-      <c r="B94" s="190">
+      <c r="B94" s="188">
         <v>1601</v>
       </c>
       <c r="C94" s="151" t="s">
@@ -5760,58 +5898,58 @@
       <c r="D94" s="151" t="s">
         <v>248</v>
       </c>
-      <c r="E94" s="191">
+      <c r="E94" s="189">
         <v>2800</v>
       </c>
       <c r="F94" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="G94" s="192">
+      <c r="G94" s="190">
         <v>0.2</v>
       </c>
-      <c r="H94" s="193">
+      <c r="H94" s="191">
         <f t="shared" si="4"/>
         <v>560</v>
       </c>
-      <c r="I94" s="193" t="s">
-        <v>2</v>
-      </c>
-      <c r="J94" s="195" t="s">
+      <c r="I94" s="191" t="s">
+        <v>2</v>
+      </c>
+      <c r="J94" s="193" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="226" customFormat="1" ht="116.5" thickBot="1">
-      <c r="A95" s="225" t="s">
+    <row r="95" spans="1:10" s="224" customFormat="1" ht="116.5" thickBot="1">
+      <c r="A95" s="223" t="s">
         <v>412</v>
       </c>
-      <c r="B95" s="217" t="s">
+      <c r="B95" s="215" t="s">
         <v>250</v>
       </c>
-      <c r="C95" s="218" t="s">
+      <c r="C95" s="216" t="s">
         <v>251</v>
       </c>
-      <c r="D95" s="218" t="s">
+      <c r="D95" s="216" t="s">
         <v>252</v>
       </c>
-      <c r="E95" s="219">
+      <c r="E95" s="217">
         <v>600</v>
       </c>
-      <c r="F95" s="218"/>
-      <c r="G95" s="220">
+      <c r="F95" s="216"/>
+      <c r="G95" s="218">
         <v>0.64</v>
       </c>
-      <c r="H95" s="221">
+      <c r="H95" s="219">
         <f t="shared" si="4"/>
         <v>384</v>
       </c>
-      <c r="I95" s="221"/>
-      <c r="J95" s="252" t="s">
+      <c r="I95" s="219"/>
+      <c r="J95" s="250" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="226" customFormat="1" ht="87.5" thickBot="1">
-      <c r="A96" s="225"/>
-      <c r="B96" s="185">
+    <row r="96" spans="1:10" s="224" customFormat="1" ht="87.5" thickBot="1">
+      <c r="A96" s="223"/>
+      <c r="B96" s="183">
         <v>154953</v>
       </c>
       <c r="C96" s="74" t="s">
@@ -5820,27 +5958,27 @@
       <c r="D96" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="E96" s="186">
+      <c r="E96" s="184">
         <v>150</v>
       </c>
       <c r="F96" s="74"/>
-      <c r="G96" s="187">
+      <c r="G96" s="185">
         <v>1</v>
       </c>
-      <c r="H96" s="188">
+      <c r="H96" s="186">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="I96" s="188"/>
-      <c r="J96" s="211" t="s">
+      <c r="I96" s="186"/>
+      <c r="J96" s="209" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="102" thickBot="1">
-      <c r="A97" s="223" t="s">
+      <c r="A97" s="221" t="s">
         <v>409</v>
       </c>
-      <c r="B97" s="180">
+      <c r="B97" s="178">
         <v>659250</v>
       </c>
       <c r="C97" s="150" t="s">
@@ -5849,89 +5987,91 @@
       <c r="D97" s="150" t="s">
         <v>245</v>
       </c>
-      <c r="E97" s="181">
+      <c r="E97" s="179">
         <v>300</v>
       </c>
       <c r="F97" s="150" t="s">
         <v>256</v>
       </c>
-      <c r="G97" s="182">
+      <c r="G97" s="180">
         <v>1</v>
       </c>
-      <c r="H97" s="183">
+      <c r="H97" s="181">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="I97" s="183"/>
-      <c r="J97" s="240" t="s">
+      <c r="I97" s="181"/>
+      <c r="J97" s="238" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="226" customFormat="1" ht="116.5" thickBot="1">
-      <c r="A98" s="225" t="s">
+    <row r="98" spans="1:11" s="224" customFormat="1" ht="116.5" thickBot="1">
+      <c r="A98" s="223" t="s">
         <v>412</v>
       </c>
-      <c r="B98" s="217" t="s">
+      <c r="B98" s="215" t="s">
         <v>258</v>
       </c>
-      <c r="C98" s="218" t="s">
+      <c r="C98" s="216" t="s">
         <v>259</v>
       </c>
-      <c r="D98" s="218" t="s">
+      <c r="D98" s="216" t="s">
         <v>252</v>
       </c>
-      <c r="E98" s="219">
+      <c r="E98" s="217">
         <v>1200</v>
       </c>
-      <c r="F98" s="218"/>
-      <c r="G98" s="220">
+      <c r="F98" s="216"/>
+      <c r="G98" s="218">
         <v>0.3</v>
       </c>
-      <c r="H98" s="221">
+      <c r="H98" s="219">
         <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="I98" s="221"/>
-      <c r="J98" s="252" t="s">
+      <c r="I98" s="219"/>
+      <c r="J98" s="250" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="226" customFormat="1" ht="87.5" thickBot="1">
-      <c r="A99" s="225" t="s">
+    <row r="99" spans="1:11" s="224" customFormat="1" ht="87.5" thickBot="1">
+      <c r="A99" s="223" t="s">
         <v>412</v>
       </c>
-      <c r="B99" s="217" t="s">
+      <c r="B99" s="215" t="s">
         <v>261</v>
       </c>
-      <c r="C99" s="218" t="s">
+      <c r="C99" s="216" t="s">
         <v>183</v>
       </c>
-      <c r="D99" s="218" t="s">
+      <c r="D99" s="216" t="s">
         <v>252</v>
       </c>
-      <c r="E99" s="219">
+      <c r="E99" s="217">
         <v>600</v>
       </c>
-      <c r="F99" s="218" t="s">
-        <v>2</v>
-      </c>
-      <c r="G99" s="220">
+      <c r="F99" s="216" t="s">
+        <v>2</v>
+      </c>
+      <c r="G99" s="218">
         <v>0.59</v>
       </c>
-      <c r="H99" s="221">
+      <c r="H99" s="219">
         <f t="shared" si="4"/>
         <v>354</v>
       </c>
-      <c r="I99" s="221" t="s">
-        <v>2</v>
-      </c>
-      <c r="J99" s="252" t="s">
+      <c r="I99" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="J99" s="250" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="226" customFormat="1" ht="87.5" thickBot="1">
-      <c r="A100" s="225"/>
-      <c r="B100" s="185">
+    <row r="100" spans="1:11" s="224" customFormat="1" ht="87.5" thickBot="1">
+      <c r="A100" s="223" t="s">
+        <v>412</v>
+      </c>
+      <c r="B100" s="183">
         <v>106619</v>
       </c>
       <c r="C100" s="74" t="s">
@@ -5940,29 +6080,31 @@
       <c r="D100" s="74" t="s">
         <v>245</v>
       </c>
-      <c r="E100" s="186">
+      <c r="E100" s="184">
         <v>120</v>
       </c>
       <c r="F100" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G100" s="187">
+      <c r="G100" s="185">
         <v>1</v>
       </c>
-      <c r="H100" s="188">
+      <c r="H100" s="186">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="I100" s="188" t="s">
-        <v>2</v>
-      </c>
-      <c r="J100" s="211" t="s">
+      <c r="I100" s="186" t="s">
+        <v>2</v>
+      </c>
+      <c r="J100" s="209" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="226" customFormat="1" ht="61.25" customHeight="1" thickBot="1">
-      <c r="A101" s="225"/>
-      <c r="B101" s="185" t="s">
+    <row r="101" spans="1:11" s="224" customFormat="1" ht="61.25" customHeight="1" thickBot="1">
+      <c r="A101" s="223" t="s">
+        <v>412</v>
+      </c>
+      <c r="B101" s="183" t="s">
         <v>2</v>
       </c>
       <c r="C101" s="74" t="s">
@@ -5971,244 +6113,253 @@
       <c r="D101" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="E101" s="186">
+      <c r="E101" s="184">
         <v>2</v>
       </c>
       <c r="F101" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="G101" s="187">
+      <c r="G101" s="185">
         <v>19.13</v>
       </c>
-      <c r="H101" s="188">
+      <c r="H101" s="186">
         <f t="shared" si="4"/>
         <v>38.26</v>
       </c>
-      <c r="I101" s="188" t="s">
-        <v>2</v>
-      </c>
-      <c r="J101" s="211" t="s">
+      <c r="I101" s="186" t="s">
+        <v>2</v>
+      </c>
+      <c r="J101" s="209" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="B103" s="224" t="s">
+      <c r="B103" s="222" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="36.5" thickBot="1">
-      <c r="B104" s="177" t="s">
+      <c r="B104" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C104" s="178" t="s">
+      <c r="C104" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="178" t="s">
+      <c r="D104" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="E104" s="177" t="s">
+      <c r="E104" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="F104" s="177" t="s">
+      <c r="F104" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="G104" s="177" t="s">
+      <c r="G104" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="H104" s="179" t="s">
+      <c r="H104" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="I104" s="177" t="s">
+      <c r="I104" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="J104" s="179" t="s">
+      <c r="J104" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="K104" s="241" t="s">
+      <c r="K104" s="239" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="226" customFormat="1" ht="32" thickTop="1" thickBot="1">
-      <c r="A105" s="225"/>
-      <c r="B105" s="217" t="s">
+    <row r="105" spans="1:11" s="224" customFormat="1" ht="32" thickTop="1" thickBot="1">
+      <c r="A105" s="223"/>
+      <c r="B105" s="215" t="s">
         <v>71</v>
       </c>
-      <c r="C105" s="218" t="s">
+      <c r="C105" s="216" t="s">
         <v>70</v>
       </c>
-      <c r="D105" s="218" t="s">
+      <c r="D105" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="E105" s="219">
-        <v>2</v>
-      </c>
-      <c r="F105" s="218" t="s">
+      <c r="E105" s="217">
+        <v>2</v>
+      </c>
+      <c r="F105" s="216" t="s">
         <v>69</v>
       </c>
-      <c r="G105" s="220">
+      <c r="G105" s="218">
         <v>169.99</v>
       </c>
-      <c r="H105" s="221">
+      <c r="H105" s="219">
         <f t="shared" ref="H105:H110" si="5">E105*G105</f>
         <v>339.98</v>
       </c>
-      <c r="I105" s="304"/>
-      <c r="J105" s="302"/>
-      <c r="K105" s="303"/>
-    </row>
-    <row r="106" spans="1:11" s="226" customFormat="1" ht="31.5" thickBot="1">
-      <c r="A106" s="225"/>
-      <c r="B106" s="217" t="s">
+      <c r="I105" s="293"/>
+      <c r="J105" s="291"/>
+      <c r="K105" s="292"/>
+    </row>
+    <row r="106" spans="1:11" s="224" customFormat="1" ht="31.5" thickBot="1">
+      <c r="A106" s="223" t="s">
+        <v>412</v>
+      </c>
+      <c r="B106" s="215" t="s">
         <v>63</v>
       </c>
-      <c r="C106" s="218" t="s">
+      <c r="C106" s="216" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="218" t="s">
+      <c r="D106" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="E106" s="219">
+      <c r="E106" s="217">
         <v>6</v>
       </c>
-      <c r="F106" s="218" t="s">
+      <c r="F106" s="216" t="s">
         <v>38</v>
       </c>
-      <c r="G106" s="220">
+      <c r="G106" s="218">
         <v>11</v>
       </c>
-      <c r="H106" s="221">
+      <c r="H106" s="219">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="I106" s="221"/>
-      <c r="J106" s="302"/>
-      <c r="K106" s="303"/>
-    </row>
-    <row r="107" spans="1:11" s="301" customFormat="1" ht="124.5" thickBot="1">
-      <c r="A107" s="227"/>
-      <c r="B107" s="297">
+      <c r="I106" s="219"/>
+      <c r="J106" s="291"/>
+      <c r="K106" s="292"/>
+    </row>
+    <row r="107" spans="1:11" s="290" customFormat="1" ht="124.5" thickBot="1">
+      <c r="A107" s="223" t="s">
+        <v>412</v>
+      </c>
+      <c r="B107" s="286">
         <v>803920103314</v>
       </c>
-      <c r="C107" s="298" t="s">
+      <c r="C107" s="287" t="s">
         <v>331</v>
       </c>
-      <c r="D107" s="213" t="s">
+      <c r="D107" s="211" t="s">
         <v>129</v>
       </c>
-      <c r="E107" s="214">
+      <c r="E107" s="212">
         <v>3</v>
       </c>
-      <c r="F107" s="214" t="s">
+      <c r="F107" s="212" t="s">
         <v>332</v>
       </c>
-      <c r="G107" s="296">
+      <c r="G107" s="285">
         <v>16.47</v>
       </c>
-      <c r="H107" s="296">
+      <c r="H107" s="285">
         <f>SUM(E107*G107)</f>
         <v>49.41</v>
       </c>
-      <c r="I107" s="215" t="s">
+      <c r="I107" s="213" t="s">
         <v>333</v>
       </c>
-      <c r="J107" s="299" t="s">
+      <c r="J107" s="288" t="s">
         <v>334</v>
       </c>
-      <c r="K107" s="300"/>
+      <c r="K107" s="289"/>
     </row>
     <row r="108" spans="1:11" ht="62.5" thickBot="1">
-      <c r="B108" s="190"/>
+      <c r="B108" s="188"/>
       <c r="C108" s="151" t="s">
         <v>341</v>
       </c>
       <c r="D108" s="151" t="s">
         <v>342</v>
       </c>
-      <c r="E108" s="191">
+      <c r="E108" s="189">
         <v>550</v>
       </c>
       <c r="F108" s="151" t="s">
         <v>343</v>
       </c>
-      <c r="G108" s="192">
+      <c r="G108" s="190">
         <v>12.11</v>
       </c>
-      <c r="H108" s="193">
+      <c r="H108" s="191">
         <f t="shared" si="5"/>
         <v>6660.5</v>
       </c>
-      <c r="I108" s="193" t="s">
+      <c r="I108" s="191" t="s">
         <v>344</v>
       </c>
-      <c r="J108" s="242" t="s">
+      <c r="J108" s="240" t="s">
         <v>345</v>
       </c>
-      <c r="K108" s="243" t="s">
+      <c r="K108" s="241" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="226" customFormat="1" ht="87.5" thickBot="1">
-      <c r="A109" s="225"/>
-      <c r="B109" s="217" t="s">
+    <row r="109" spans="1:11" s="224" customFormat="1" ht="87.5" thickBot="1">
+      <c r="A109" s="223" t="s">
+        <v>412</v>
+      </c>
+      <c r="B109" s="215" t="s">
         <v>377</v>
       </c>
-      <c r="C109" s="218" t="s">
+      <c r="C109" s="216" t="s">
         <v>268</v>
       </c>
-      <c r="D109" s="218" t="s">
+      <c r="D109" s="216" t="s">
         <v>129</v>
       </c>
-      <c r="E109" s="219">
+      <c r="E109" s="217">
         <v>11</v>
       </c>
-      <c r="F109" s="218" t="s">
-        <v>2</v>
-      </c>
-      <c r="G109" s="220">
+      <c r="F109" s="216" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" s="218">
         <v>3.79</v>
       </c>
-      <c r="H109" s="221">
+      <c r="H109" s="219">
         <f t="shared" si="5"/>
         <v>41.69</v>
       </c>
-      <c r="I109" s="221" t="s">
-        <v>2</v>
-      </c>
-      <c r="J109" s="302" t="s">
+      <c r="I109" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="J109" s="291" t="s">
         <v>201</v>
       </c>
-      <c r="K109" s="303"/>
-    </row>
-    <row r="110" spans="1:11" ht="58.5" thickBot="1">
-      <c r="B110" s="190" t="s">
+      <c r="K109" s="292"/>
+    </row>
+    <row r="110" spans="1:11" s="224" customFormat="1" ht="58.5" thickBot="1">
+      <c r="A110" s="223" t="s">
+        <v>412</v>
+      </c>
+      <c r="B110" s="215" t="s">
         <v>379</v>
       </c>
-      <c r="C110" s="151" t="s">
+      <c r="C110" s="216" t="s">
         <v>380</v>
       </c>
-      <c r="D110" s="151" t="s">
+      <c r="D110" s="216" t="s">
         <v>224</v>
       </c>
-      <c r="E110" s="191">
+      <c r="E110" s="217">
         <v>550</v>
       </c>
-      <c r="F110" s="151" t="s">
-        <v>2</v>
-      </c>
-      <c r="G110" s="192">
+      <c r="F110" s="216" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" s="218">
         <v>0.54</v>
       </c>
-      <c r="H110" s="193">
+      <c r="H110" s="219">
         <f t="shared" si="5"/>
         <v>297</v>
       </c>
-      <c r="I110" s="193" t="s">
-        <v>2</v>
-      </c>
-      <c r="J110" s="242" t="s">
+      <c r="I110" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="J110" s="291" t="s">
         <v>378</v>
       </c>
-      <c r="K110" s="243"/>
+      <c r="K110" s="292"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6293,17 +6444,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="296" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
       <c r="J1" s="105"/>
     </row>
     <row r="2" spans="1:10" ht="15.5">
@@ -6963,10 +7114,10 @@
       <c r="C25" s="110"/>
       <c r="D25" s="110"/>
       <c r="E25" s="110"/>
-      <c r="F25" s="257" t="s">
+      <c r="F25" s="297" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="258"/>
+      <c r="G25" s="298"/>
       <c r="H25" s="147">
         <f>SUM(H6:H24)</f>
         <v>5810.22</v>
@@ -7040,17 +7191,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="299" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
+      <c r="B1" s="299"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="299"/>
       <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:12" ht="25">
@@ -7734,10 +7885,10 @@
     <row r="27" spans="1:56" ht="20.5" thickBot="1">
       <c r="A27" s="12"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="260" t="s">
+      <c r="F27" s="300" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="261"/>
+      <c r="G27" s="301"/>
       <c r="H27" s="28">
         <f>SUM(H6:H26)</f>
         <v>5499.6900000000005</v>
@@ -7801,17 +7952,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
+      <c r="B1" s="302"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="302"/>
+      <c r="F1" s="302"/>
+      <c r="G1" s="302"/>
+      <c r="H1" s="302"/>
+      <c r="I1" s="302"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="25">
@@ -8606,10 +8757,10 @@
     <row r="30" spans="1:10" ht="20.5" thickBot="1">
       <c r="A30" s="12"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="260" t="s">
+      <c r="F30" s="300" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="261"/>
+      <c r="G30" s="301"/>
       <c r="H30" s="28">
         <f>SUM(H6:H29)</f>
         <v>3917.8400000000006</v>
@@ -8684,17 +8835,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="25">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="299" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
+      <c r="B1" s="299"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="299"/>
       <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:90" ht="25">
@@ -9707,10 +9858,10 @@
       <c r="C28" s="91"/>
       <c r="D28" s="91"/>
       <c r="E28" s="92"/>
-      <c r="F28" s="263" t="s">
+      <c r="F28" s="303" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="264"/>
+      <c r="G28" s="304"/>
       <c r="H28" s="93">
         <f>SUM(H6:H27)</f>
         <v>6412.95</v>
@@ -9762,17 +9913,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
+      <c r="B1" s="302"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="302"/>
+      <c r="F1" s="302"/>
+      <c r="G1" s="302"/>
+      <c r="H1" s="302"/>
+      <c r="I1" s="302"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="25">
@@ -10326,10 +10477,10 @@
     <row r="23" spans="1:10" ht="20.5" thickBot="1">
       <c r="A23" s="12"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="260" t="s">
+      <c r="F23" s="300" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="261"/>
+      <c r="G23" s="301"/>
       <c r="H23" s="28">
         <f>SUM(H6:H22)</f>
         <v>5330.18</v>
@@ -10379,101 +10530,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="266"/>
+      <c r="B1" s="302"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="302"/>
+      <c r="F1" s="302"/>
+      <c r="G1" s="302"/>
+      <c r="H1" s="302"/>
+      <c r="I1" s="302"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="255"/>
     </row>
     <row r="2" spans="1:11" ht="25">
-      <c r="A2" s="267" t="s">
+      <c r="A2" s="256" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="268"/>
+      <c r="C2" s="257"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="266"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="255"/>
     </row>
     <row r="3" spans="1:11" ht="25">
-      <c r="A3" s="267" t="s">
+      <c r="A3" s="256" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="268"/>
+      <c r="C3" s="257"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="266"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="255"/>
     </row>
     <row r="4" spans="1:11" ht="20">
-      <c r="A4" s="267" t="s">
+      <c r="A4" s="256" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="268"/>
+      <c r="C4" s="257"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="270"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="269"/>
-      <c r="H4" s="269"/>
-      <c r="I4" s="271"/>
-      <c r="J4" s="271"/>
-      <c r="K4" s="266"/>
+      <c r="E4" s="259"/>
+      <c r="F4" s="258"/>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="255"/>
     </row>
     <row r="5" spans="1:11" ht="18.5" thickBot="1">
-      <c r="A5" s="272" t="s">
+      <c r="A5" s="261" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="273" t="s">
+      <c r="B5" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="273" t="s">
+      <c r="C5" s="262" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="273" t="s">
+      <c r="D5" s="262" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="272" t="s">
+      <c r="E5" s="261" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="272" t="s">
+      <c r="F5" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="272" t="s">
+      <c r="G5" s="261" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="274" t="s">
+      <c r="H5" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="272" t="s">
+      <c r="I5" s="261" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="274" t="s">
+      <c r="J5" s="263" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="275" t="s">
+      <c r="K5" s="264" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10501,9 +10652,9 @@
         <f t="shared" ref="H6:H16" si="0">E6*G6</f>
         <v>339.98</v>
       </c>
-      <c r="I6" s="293"/>
-      <c r="J6" s="288"/>
-      <c r="K6" s="289"/>
+      <c r="I6" s="282"/>
+      <c r="J6" s="277"/>
+      <c r="K6" s="278"/>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="A7" s="20" t="s">
@@ -10530,10 +10681,10 @@
         <v>66</v>
       </c>
       <c r="I7" s="26"/>
-      <c r="J7" s="288"/>
-      <c r="K7" s="289"/>
-    </row>
-    <row r="8" spans="1:11" s="291" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
+      <c r="J7" s="277"/>
+      <c r="K7" s="278"/>
+    </row>
+    <row r="8" spans="1:11" s="280" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
       <c r="A8" s="79">
         <v>803920103314</v>
       </c>
@@ -10563,37 +10714,37 @@
       <c r="J8" s="84" t="s">
         <v>334</v>
       </c>
-      <c r="K8" s="290"/>
+      <c r="K8" s="279"/>
     </row>
     <row r="9" spans="1:11" ht="16" thickBot="1">
-      <c r="A9" s="276"/>
-      <c r="B9" s="283" t="s">
+      <c r="A9" s="265"/>
+      <c r="B9" s="272" t="s">
         <v>341</v>
       </c>
-      <c r="C9" s="283" t="s">
+      <c r="C9" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="D9" s="281"/>
-      <c r="E9" s="281">
+      <c r="D9" s="270"/>
+      <c r="E9" s="270">
         <v>550</v>
       </c>
-      <c r="F9" s="283" t="s">
+      <c r="F9" s="272" t="s">
         <v>343</v>
       </c>
-      <c r="G9" s="277">
+      <c r="G9" s="266">
         <v>12.11</v>
       </c>
-      <c r="H9" s="278">
+      <c r="H9" s="267">
         <f t="shared" si="0"/>
         <v>6660.5</v>
       </c>
-      <c r="I9" s="282" t="s">
+      <c r="I9" s="271" t="s">
         <v>344</v>
       </c>
-      <c r="J9" s="279" t="s">
+      <c r="J9" s="268" t="s">
         <v>345</v>
       </c>
-      <c r="K9" s="280" t="s">
+      <c r="K9" s="269" t="s">
         <v>346</v>
       </c>
     </row>
@@ -10624,190 +10775,190 @@
       <c r="I10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="292" t="s">
+      <c r="J10" s="281" t="s">
         <v>201</v>
       </c>
-      <c r="K10" s="289"/>
+      <c r="K10" s="278"/>
     </row>
     <row r="11" spans="1:11" ht="16" thickBot="1">
-      <c r="A11" s="276" t="s">
+      <c r="A11" s="265" t="s">
         <v>379</v>
       </c>
-      <c r="B11" s="283" t="s">
+      <c r="B11" s="272" t="s">
         <v>380</v>
       </c>
-      <c r="C11" s="283" t="s">
+      <c r="C11" s="272" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="281"/>
-      <c r="E11" s="281">
+      <c r="D11" s="270"/>
+      <c r="E11" s="270">
         <v>550</v>
       </c>
-      <c r="F11" s="283" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="277">
+      <c r="F11" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="266">
         <v>0.54</v>
       </c>
-      <c r="H11" s="278">
+      <c r="H11" s="267">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
-      <c r="I11" s="282" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="284" t="s">
+      <c r="I11" s="271" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="273" t="s">
         <v>378</v>
       </c>
-      <c r="K11" s="280"/>
+      <c r="K11" s="269"/>
     </row>
     <row r="12" spans="1:11" ht="16" thickBot="1">
-      <c r="A12" s="276" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="283" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="283" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="281"/>
-      <c r="E12" s="281"/>
-      <c r="F12" s="283" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="277"/>
-      <c r="H12" s="278">
+      <c r="A12" s="265" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="270"/>
+      <c r="E12" s="270"/>
+      <c r="F12" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="266"/>
+      <c r="H12" s="267">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="282" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="284"/>
-      <c r="K12" s="280"/>
+      <c r="I12" s="271" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="273"/>
+      <c r="K12" s="269"/>
     </row>
     <row r="13" spans="1:11" ht="16" thickBot="1">
-      <c r="A13" s="276" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="283" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="283" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="281"/>
-      <c r="E13" s="281"/>
-      <c r="F13" s="283" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="277"/>
-      <c r="H13" s="278">
+      <c r="A13" s="265" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="270"/>
+      <c r="E13" s="270"/>
+      <c r="F13" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="266"/>
+      <c r="H13" s="267">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="282" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="284"/>
-      <c r="K13" s="280"/>
+      <c r="I13" s="271" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="273"/>
+      <c r="K13" s="269"/>
     </row>
     <row r="14" spans="1:11" ht="16" thickBot="1">
-      <c r="A14" s="276" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="283" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="283" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="281"/>
-      <c r="E14" s="281"/>
-      <c r="F14" s="283" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="277"/>
-      <c r="H14" s="278">
+      <c r="A14" s="265" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="270"/>
+      <c r="E14" s="270"/>
+      <c r="F14" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="266"/>
+      <c r="H14" s="267">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="282" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="284"/>
-      <c r="K14" s="280"/>
+      <c r="I14" s="271" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="273"/>
+      <c r="K14" s="269"/>
     </row>
     <row r="15" spans="1:11" ht="16" thickBot="1">
-      <c r="A15" s="276" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="283" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="283" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="281"/>
-      <c r="E15" s="281"/>
-      <c r="F15" s="283" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="277"/>
-      <c r="H15" s="278">
+      <c r="A15" s="265" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="270"/>
+      <c r="E15" s="270"/>
+      <c r="F15" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="266"/>
+      <c r="H15" s="267">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="282" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="284"/>
-      <c r="K15" s="280"/>
+      <c r="I15" s="271" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="273"/>
+      <c r="K15" s="269"/>
     </row>
     <row r="16" spans="1:11" ht="16" thickBot="1">
-      <c r="A16" s="276" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="283" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="283" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="281"/>
-      <c r="E16" s="281"/>
-      <c r="F16" s="283" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="277"/>
-      <c r="H16" s="278">
+      <c r="A16" s="265" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="270"/>
+      <c r="E16" s="270"/>
+      <c r="F16" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="266"/>
+      <c r="H16" s="267">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="282" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="284"/>
-      <c r="K16" s="280"/>
+      <c r="I16" s="271" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="273"/>
+      <c r="K16" s="269"/>
     </row>
     <row r="17" spans="1:11" ht="20.5" thickBot="1">
-      <c r="A17" s="285"/>
-      <c r="B17" s="266"/>
-      <c r="C17" s="266"/>
-      <c r="D17" s="266"/>
-      <c r="E17" s="286"/>
-      <c r="F17" s="260" t="s">
+      <c r="A17" s="274"/>
+      <c r="B17" s="255"/>
+      <c r="C17" s="255"/>
+      <c r="D17" s="255"/>
+      <c r="E17" s="275"/>
+      <c r="F17" s="300" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="261"/>
+      <c r="G17" s="301"/>
       <c r="H17" s="28">
         <f>SUM(H6:H16)</f>
         <v>7454.58</v>
       </c>
       <c r="I17" s="14"/>
-      <c r="J17" s="287"/>
-      <c r="K17" s="266"/>
+      <c r="J17" s="276"/>
+      <c r="K17" s="255"/>
     </row>
     <row r="20" spans="1:11">
       <c r="B20" t="s">

--- a/Basilisks live amongst us 7-31-18 SMC order.xlsx
+++ b/Basilisks live amongst us 7-31-18 SMC order.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\msi-od002\users$\msolo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9F7FEE-5C0A-4364-80E3-C820195A0D7F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15096" windowHeight="5796"/>
   </bookViews>
   <sheets>
     <sheet name="CONSOLIDATED FOR MARK" sheetId="10" r:id="rId1"/>
@@ -21,12 +20,12 @@
     <sheet name="Lesson 5" sheetId="5" r:id="rId6"/>
     <sheet name="Multi-Lesson Supplies" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="434">
   <si>
     <t>PURCHASING ORDER FORM</t>
   </si>
@@ -1380,11 +1379,17 @@
   <si>
     <t>ordered?</t>
   </si>
+  <si>
+    <t>ARRIVED.</t>
+  </si>
+  <si>
+    <t>ord 40 8/9/18</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -2925,6 +2930,42 @@
     <xf numFmtId="0" fontId="49" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2951,42 +2992,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="54" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3087,23 +3092,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3139,23 +3127,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3331,17 +3302,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" style="221"/>
-    <col min="2" max="2" width="19.90625" style="222" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="222" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17" style="222"/>
     <col min="5" max="8" width="17" style="222" customWidth="1"/>
     <col min="9" max="16384" width="17" style="222"/>
@@ -3360,7 +3331,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31">
+    <row r="3" spans="1:10" ht="31.2">
       <c r="B3" s="152" t="s">
         <v>5</v>
       </c>
@@ -3389,7 +3360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="46.5">
+    <row r="4" spans="1:10" ht="46.8">
       <c r="B4" s="155" t="s">
         <v>22</v>
       </c>
@@ -3452,7 +3423,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="224" customFormat="1" ht="31.75" customHeight="1">
+    <row r="6" spans="1:10" s="224" customFormat="1" ht="31.8" customHeight="1">
       <c r="A6" s="223" t="s">
         <v>411</v>
       </c>
@@ -3485,7 +3456,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="124">
+    <row r="7" spans="1:10" ht="124.8">
       <c r="A7" s="221" t="s">
         <v>415</v>
       </c>
@@ -3550,7 +3521,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="224" customFormat="1" ht="67.25" customHeight="1">
+    <row r="9" spans="1:10" s="224" customFormat="1" ht="67.2" customHeight="1">
       <c r="A9" s="223" t="s">
         <v>412</v>
       </c>
@@ -3583,7 +3554,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="224" customFormat="1" ht="84.65" customHeight="1">
+    <row r="10" spans="1:10" s="224" customFormat="1" ht="84.6" customHeight="1">
       <c r="A10" s="223"/>
       <c r="B10" s="283">
         <v>400011857257</v>
@@ -3614,7 +3585,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="224" customFormat="1" ht="102.65" customHeight="1">
+    <row r="11" spans="1:10" s="224" customFormat="1" ht="102.6" customHeight="1">
       <c r="A11" s="223" t="s">
         <v>429</v>
       </c>
@@ -3636,7 +3607,7 @@
       <c r="G11" s="172">
         <v>10.99</v>
       </c>
-      <c r="H11" s="306">
+      <c r="H11" s="297">
         <f>SUM(E11*G11)</f>
         <v>120.89</v>
       </c>
@@ -3647,7 +3618,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="224" customFormat="1" ht="46.75" customHeight="1">
+    <row r="12" spans="1:10" s="224" customFormat="1" ht="46.8" customHeight="1">
       <c r="A12" s="223" t="s">
         <v>412</v>
       </c>
@@ -3680,7 +3651,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="224" customFormat="1" ht="226.75" customHeight="1">
+    <row r="13" spans="1:10" s="224" customFormat="1" ht="226.8" customHeight="1">
       <c r="A13" s="223"/>
       <c r="B13" s="283">
         <v>10074506116197</v>
@@ -3710,7 +3681,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="224" customFormat="1" ht="45.65" customHeight="1">
+    <row r="14" spans="1:10" s="224" customFormat="1" ht="45.6" customHeight="1">
       <c r="A14" s="223"/>
       <c r="B14" s="159" t="s">
         <v>133</v>
@@ -3772,7 +3743,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="224" customFormat="1" ht="81.650000000000006" customHeight="1">
+    <row r="16" spans="1:10" s="224" customFormat="1" ht="81.599999999999994" customHeight="1">
       <c r="A16" s="223" t="s">
         <v>419</v>
       </c>
@@ -3836,7 +3807,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="224" customFormat="1" ht="93">
+    <row r="18" spans="1:10" s="224" customFormat="1" ht="90">
       <c r="A18" s="223"/>
       <c r="B18" s="211" t="s">
         <v>318</v>
@@ -3867,7 +3838,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="224" customFormat="1" ht="31.75" customHeight="1">
+    <row r="19" spans="1:10" s="224" customFormat="1" ht="31.8" customHeight="1">
       <c r="A19" s="223"/>
       <c r="B19" s="159" t="s">
         <v>324</v>
@@ -3898,7 +3869,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="224" customFormat="1" ht="88.75" customHeight="1">
+    <row r="20" spans="1:10" s="224" customFormat="1" ht="88.8" customHeight="1">
       <c r="A20" s="223" t="s">
         <v>412</v>
       </c>
@@ -3909,7 +3880,7 @@
       <c r="D20" s="159" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="305" t="s">
+      <c r="E20" s="296" t="s">
         <v>425</v>
       </c>
       <c r="F20" s="160" t="s">
@@ -3967,7 +3938,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="36.5" thickBot="1">
+    <row r="23" spans="1:10" ht="35.4" thickBot="1">
       <c r="A23" s="223" t="s">
         <v>405</v>
       </c>
@@ -4090,7 +4061,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="142.25" customHeight="1" thickBot="1">
+    <row r="27" spans="1:10" ht="142.19999999999999" customHeight="1" thickBot="1">
       <c r="A27" s="223" t="s">
         <v>418</v>
       </c>
@@ -4117,7 +4088,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="224" customFormat="1" ht="93.5" thickBot="1">
+    <row r="28" spans="1:10" s="224" customFormat="1" ht="90.6" thickBot="1">
       <c r="A28" s="223" t="s">
         <v>412</v>
       </c>
@@ -4148,7 +4119,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="224" customFormat="1" ht="93.5" thickBot="1">
+    <row r="29" spans="1:10" s="224" customFormat="1" ht="94.2" thickBot="1">
       <c r="A29" s="223"/>
       <c r="B29" s="215"/>
       <c r="C29" s="216" t="s">
@@ -4175,7 +4146,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16" thickBot="1">
+    <row r="30" spans="1:10" ht="16.2" thickBot="1">
       <c r="A30" s="223"/>
       <c r="B30" s="188"/>
       <c r="C30" s="151"/>
@@ -4194,7 +4165,7 @@
       </c>
       <c r="J30" s="193"/>
     </row>
-    <row r="31" spans="1:10" s="224" customFormat="1" ht="124.5" thickBot="1">
+    <row r="31" spans="1:10" s="224" customFormat="1" ht="125.4" thickBot="1">
       <c r="A31" s="223" t="s">
         <v>412</v>
       </c>
@@ -4227,7 +4198,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="186.5" thickBot="1">
+    <row r="32" spans="1:10" ht="187.8" thickBot="1">
       <c r="A32" s="223"/>
       <c r="B32" s="188" t="s">
         <v>376</v>
@@ -4254,7 +4225,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="224" customFormat="1" ht="93.5" thickBot="1">
+    <row r="33" spans="1:10" s="224" customFormat="1" ht="109.8" thickBot="1">
       <c r="A33" s="223"/>
       <c r="B33" s="215" t="s">
         <v>209</v>
@@ -4285,7 +4256,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16" thickBot="1">
+    <row r="34" spans="1:10" ht="16.2" thickBot="1">
       <c r="A34" s="223"/>
       <c r="B34" s="188"/>
       <c r="C34" s="151"/>
@@ -4333,7 +4304,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="224" customFormat="1" ht="78" thickBot="1">
+    <row r="36" spans="1:10" s="224" customFormat="1" ht="78.599999999999994" thickBot="1">
       <c r="A36" s="223" t="s">
         <v>416</v>
       </c>
@@ -4366,7 +4337,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="87.5" thickBot="1">
+    <row r="37" spans="1:10" ht="87" thickBot="1">
       <c r="A37" s="223"/>
       <c r="B37" s="178" t="s">
         <v>271</v>
@@ -4395,7 +4366,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="224" customFormat="1" ht="47" thickBot="1">
+    <row r="38" spans="1:10" s="224" customFormat="1" ht="47.4" thickBot="1">
       <c r="A38" s="223" t="s">
         <v>420</v>
       </c>
@@ -4428,7 +4399,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="85.25" customHeight="1" thickBot="1">
+    <row r="39" spans="1:10" ht="85.2" customHeight="1" thickBot="1">
       <c r="A39" s="223"/>
       <c r="B39" s="188" t="s">
         <v>222</v>
@@ -4455,7 +4426,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="73.25" customHeight="1" thickBot="1">
+    <row r="40" spans="1:10" ht="73.2" customHeight="1" thickBot="1">
       <c r="A40" s="223" t="s">
         <v>406</v>
       </c>
@@ -4484,7 +4455,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="224" customFormat="1" ht="91.25" customHeight="1" thickBot="1">
+    <row r="41" spans="1:10" s="224" customFormat="1" ht="91.2" customHeight="1" thickBot="1">
       <c r="A41" s="223"/>
       <c r="B41" s="215"/>
       <c r="C41" s="216" t="s">
@@ -4514,7 +4485,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="36.5" thickBot="1">
+    <row r="44" spans="1:10" ht="35.4" thickBot="1">
       <c r="A44" s="225" t="s">
         <v>401</v>
       </c>
@@ -4546,7 +4517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="224" customFormat="1" ht="63" thickTop="1" thickBot="1">
+    <row r="45" spans="1:10" s="224" customFormat="1" ht="61.2" thickTop="1" thickBot="1">
       <c r="A45" s="225"/>
       <c r="B45" s="215" t="s">
         <v>62</v>
@@ -4576,7 +4547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16" thickBot="1">
+    <row r="46" spans="1:10" ht="16.2" thickBot="1">
       <c r="A46" s="225"/>
       <c r="B46" s="188" t="s">
         <v>63</v>
@@ -4590,7 +4561,7 @@
       <c r="I46" s="191"/>
       <c r="J46" s="193"/>
     </row>
-    <row r="47" spans="1:10" s="224" customFormat="1" ht="47" thickBot="1">
+    <row r="47" spans="1:10" s="224" customFormat="1" ht="45.6" thickBot="1">
       <c r="A47" s="225"/>
       <c r="B47" s="215">
         <v>11029200</v>
@@ -4620,7 +4591,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="47" thickBot="1">
+    <row r="48" spans="1:10" ht="47.4" thickBot="1">
       <c r="A48" s="225"/>
       <c r="B48" s="188" t="s">
         <v>64</v>
@@ -4651,7 +4622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="224" customFormat="1" ht="31.5" thickBot="1">
+    <row r="49" spans="1:10" s="224" customFormat="1" ht="30.6" thickBot="1">
       <c r="A49" s="225"/>
       <c r="B49" s="215">
         <v>22584104</v>
@@ -4682,7 +4653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="224" customFormat="1" ht="31.5" thickBot="1">
+    <row r="50" spans="1:10" s="224" customFormat="1" ht="30.6" thickBot="1">
       <c r="A50" s="225"/>
       <c r="B50" s="215">
         <v>10400921</v>
@@ -4713,7 +4684,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="224" customFormat="1" ht="52.5" thickBot="1">
+    <row r="51" spans="1:10" s="224" customFormat="1" ht="55.8" thickBot="1">
       <c r="A51" s="226" t="s">
         <v>404</v>
       </c>
@@ -4746,7 +4717,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="224" customFormat="1" ht="31.5" thickBot="1">
+    <row r="52" spans="1:10" s="224" customFormat="1" ht="30.6" thickBot="1">
       <c r="A52" s="225"/>
       <c r="B52" s="215">
         <v>15166</v>
@@ -4810,7 +4781,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="224" customFormat="1" ht="47" thickBot="1">
+    <row r="54" spans="1:10" s="224" customFormat="1" ht="45.6" thickBot="1">
       <c r="A54" s="225" t="s">
         <v>430</v>
       </c>
@@ -4839,11 +4810,11 @@
       <c r="I54" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="J54" s="307" t="s">
+      <c r="J54" s="298" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="224" customFormat="1" ht="47" thickBot="1">
+    <row r="55" spans="1:10" s="224" customFormat="1" ht="45.6" thickBot="1">
       <c r="A55" s="225" t="s">
         <v>430</v>
       </c>
@@ -4876,7 +4847,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="224" customFormat="1" ht="47" thickBot="1">
+    <row r="56" spans="1:10" s="224" customFormat="1" ht="45.6" thickBot="1">
       <c r="A56" s="223" t="s">
         <v>412</v>
       </c>
@@ -4909,7 +4880,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="224" customFormat="1" ht="31.5" thickBot="1">
+    <row r="57" spans="1:10" s="224" customFormat="1" ht="30.6" thickBot="1">
       <c r="A57" s="223" t="s">
         <v>412</v>
       </c>
@@ -4940,7 +4911,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="224" customFormat="1" ht="47" thickBot="1">
+    <row r="58" spans="1:10" s="224" customFormat="1" ht="45.6" thickBot="1">
       <c r="A58" s="223" t="s">
         <v>412</v>
       </c>
@@ -4973,7 +4944,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="224" customFormat="1" ht="31.5" thickBot="1">
+    <row r="59" spans="1:10" s="224" customFormat="1" ht="30.6" thickBot="1">
       <c r="A59" s="225"/>
       <c r="B59" s="215">
         <v>9171119</v>
@@ -5037,7 +5008,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="47" thickBot="1">
+    <row r="61" spans="1:10" ht="47.4" thickBot="1">
       <c r="A61" s="225"/>
       <c r="B61" s="188" t="s">
         <v>369</v>
@@ -5068,7 +5039,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="236" customFormat="1" ht="31.5" thickBot="1">
+    <row r="62" spans="1:10" s="236" customFormat="1" ht="31.8" thickBot="1">
       <c r="A62" s="229" t="s">
         <v>408</v>
       </c>
@@ -5101,7 +5072,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="16" thickBot="1">
+    <row r="63" spans="1:10" ht="16.2" thickBot="1">
       <c r="A63" s="225"/>
       <c r="B63" s="188" t="s">
         <v>375</v>
@@ -5132,7 +5103,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="224" customFormat="1" ht="62.5" thickBot="1">
+    <row r="64" spans="1:10" s="224" customFormat="1" ht="60.6" thickBot="1">
       <c r="A64" s="223" t="s">
         <v>412</v>
       </c>
@@ -5165,7 +5136,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="224" customFormat="1" ht="47" thickBot="1">
+    <row r="65" spans="1:10" s="224" customFormat="1" ht="45.6" thickBot="1">
       <c r="A65" s="225"/>
       <c r="B65" s="215">
         <v>843342</v>
@@ -5196,16 +5167,16 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.5">
+    <row r="66" spans="1:10" ht="15.6">
       <c r="A66" s="225"/>
     </row>
-    <row r="67" spans="1:10" ht="16" thickBot="1">
+    <row r="67" spans="1:10" ht="16.2" thickBot="1">
       <c r="A67" s="225"/>
       <c r="B67" s="222" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="47" thickBot="1">
+    <row r="68" spans="1:10" ht="63" thickBot="1">
       <c r="B68" s="188" t="s">
         <v>138</v>
       </c>
@@ -5235,7 +5206,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="31.5" thickBot="1">
+    <row r="69" spans="1:10" ht="31.8" thickBot="1">
       <c r="B69" s="188">
         <v>1100113439</v>
       </c>
@@ -5290,7 +5261,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="73" thickBot="1">
+    <row r="71" spans="1:10" ht="72.599999999999994" thickBot="1">
       <c r="B71" s="188" t="s">
         <v>145</v>
       </c>
@@ -5318,7 +5289,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="224" customFormat="1" ht="97.25" customHeight="1" thickBot="1">
+    <row r="72" spans="1:10" s="224" customFormat="1" ht="97.2" customHeight="1" thickBot="1">
       <c r="A72" s="223" t="s">
         <v>412</v>
       </c>
@@ -5381,7 +5352,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="224" customFormat="1" ht="39.65" customHeight="1" thickBot="1">
+    <row r="74" spans="1:10" s="224" customFormat="1" ht="39.6" customHeight="1" thickBot="1">
       <c r="A74" s="223" t="s">
         <v>412</v>
       </c>
@@ -5410,7 +5381,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="31.5" thickBot="1">
+    <row r="75" spans="1:10" ht="31.8" thickBot="1">
       <c r="B75" s="188" t="s">
         <v>71</v>
       </c>
@@ -5466,32 +5437,32 @@
         <v>355</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="316" customFormat="1" ht="62.5" thickBot="1">
-      <c r="A77" s="309"/>
-      <c r="B77" s="310" t="s">
+    <row r="77" spans="1:10" s="307" customFormat="1" ht="63" thickBot="1">
+      <c r="A77" s="300"/>
+      <c r="B77" s="301" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="311" t="s">
+      <c r="C77" s="302" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="311" t="s">
+      <c r="D77" s="302" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="312">
+      <c r="E77" s="303">
         <v>115</v>
       </c>
-      <c r="F77" s="311" t="s">
+      <c r="F77" s="302" t="s">
         <v>38</v>
       </c>
-      <c r="G77" s="313"/>
-      <c r="H77" s="314">
+      <c r="G77" s="304"/>
+      <c r="H77" s="305">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I77" s="314" t="s">
+      <c r="I77" s="305" t="s">
         <v>36</v>
       </c>
-      <c r="J77" s="315" t="s">
+      <c r="J77" s="306" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5527,7 +5498,7 @@
     </row>
     <row r="79" spans="1:10" s="224" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A79" s="223" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="B79" s="183" t="s">
         <v>161</v>
@@ -5556,7 +5527,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="37.25" customHeight="1" thickBot="1">
+    <row r="80" spans="1:10" ht="37.200000000000003" customHeight="1" thickBot="1">
       <c r="B80" s="188" t="s">
         <v>230</v>
       </c>
@@ -5584,7 +5555,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="78" thickBot="1">
+    <row r="81" spans="1:10" ht="78.599999999999994" thickBot="1">
       <c r="B81" s="188"/>
       <c r="C81" s="151" t="s">
         <v>156</v>
@@ -5632,7 +5603,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="224" customFormat="1" ht="67.25" customHeight="1" thickBot="1">
+    <row r="83" spans="1:10" s="224" customFormat="1" ht="67.2" customHeight="1" thickBot="1">
       <c r="A83" s="223" t="s">
         <v>427</v>
       </c>
@@ -5665,7 +5636,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="31.5" thickBot="1">
+    <row r="84" spans="1:10" ht="31.8" thickBot="1">
       <c r="B84" s="188" t="s">
         <v>392</v>
       </c>
@@ -5693,12 +5664,12 @@
       </c>
       <c r="J84" s="193"/>
     </row>
-    <row r="86" spans="1:10" ht="15.5">
+    <row r="86" spans="1:10" ht="15.6">
       <c r="B86" s="208" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="36.5" thickBot="1">
+    <row r="87" spans="1:10" ht="35.4" thickBot="1">
       <c r="B87" s="175" t="s">
         <v>5</v>
       </c>
@@ -5727,7 +5698,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="73.5" thickTop="1" thickBot="1">
+    <row r="88" spans="1:10" ht="87.6" thickTop="1" thickBot="1">
+      <c r="A88" s="221" t="s">
+        <v>433</v>
+      </c>
       <c r="B88" s="188"/>
       <c r="C88" s="150" t="s">
         <v>175</v>
@@ -5750,7 +5724,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="73" thickBot="1">
+    <row r="89" spans="1:10" ht="87" thickBot="1">
       <c r="B89" s="188"/>
       <c r="C89" s="150" t="s">
         <v>176</v>
@@ -5773,7 +5747,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="73" thickBot="1">
+    <row r="90" spans="1:10" ht="87" thickBot="1">
       <c r="B90" s="188"/>
       <c r="C90" s="150" t="s">
         <v>177</v>
@@ -5796,8 +5770,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="73" thickBot="1">
-      <c r="A91" s="308" t="s">
+    <row r="91" spans="1:10" ht="72.599999999999994" thickBot="1">
+      <c r="A91" s="299" t="s">
         <v>431</v>
       </c>
       <c r="B91" s="188" t="s">
@@ -5824,7 +5798,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="224" customFormat="1" ht="87.5" thickBot="1">
+    <row r="92" spans="1:10" s="224" customFormat="1" ht="87" thickBot="1">
       <c r="A92" s="223" t="s">
         <v>412</v>
       </c>
@@ -5855,7 +5829,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="224" customFormat="1" ht="73" thickBot="1">
+    <row r="93" spans="1:10" s="224" customFormat="1" ht="72.599999999999994" thickBot="1">
       <c r="A93" s="223" t="s">
         <v>428</v>
       </c>
@@ -5888,7 +5862,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="73" thickBot="1">
+    <row r="94" spans="1:10" ht="72.599999999999994" thickBot="1">
       <c r="B94" s="188">
         <v>1601</v>
       </c>
@@ -5918,7 +5892,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="224" customFormat="1" ht="116.5" thickBot="1">
+    <row r="95" spans="1:10" s="224" customFormat="1" ht="101.4" thickBot="1">
       <c r="A95" s="223" t="s">
         <v>412</v>
       </c>
@@ -5947,7 +5921,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="224" customFormat="1" ht="87.5" thickBot="1">
+    <row r="96" spans="1:10" s="224" customFormat="1" ht="87" thickBot="1">
       <c r="A96" s="223"/>
       <c r="B96" s="183">
         <v>154953</v>
@@ -5974,7 +5948,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="102" thickBot="1">
+    <row r="97" spans="1:11" ht="87" thickBot="1">
       <c r="A97" s="221" t="s">
         <v>409</v>
       </c>
@@ -6005,7 +5979,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="224" customFormat="1" ht="116.5" thickBot="1">
+    <row r="98" spans="1:11" s="224" customFormat="1" ht="115.8" thickBot="1">
       <c r="A98" s="223" t="s">
         <v>412</v>
       </c>
@@ -6034,7 +6008,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="224" customFormat="1" ht="87.5" thickBot="1">
+    <row r="99" spans="1:11" s="224" customFormat="1" ht="87" thickBot="1">
       <c r="A99" s="223" t="s">
         <v>412</v>
       </c>
@@ -6067,7 +6041,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="224" customFormat="1" ht="87.5" thickBot="1">
+    <row r="100" spans="1:11" s="224" customFormat="1" ht="87" thickBot="1">
       <c r="A100" s="223" t="s">
         <v>412</v>
       </c>
@@ -6100,7 +6074,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="224" customFormat="1" ht="61.25" customHeight="1" thickBot="1">
+    <row r="101" spans="1:11" s="224" customFormat="1" ht="61.2" customHeight="1" thickBot="1">
       <c r="A101" s="223" t="s">
         <v>412</v>
       </c>
@@ -6138,7 +6112,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="36.5" thickBot="1">
+    <row r="104" spans="1:11" ht="35.4" thickBot="1">
       <c r="B104" s="175" t="s">
         <v>5</v>
       </c>
@@ -6170,7 +6144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="224" customFormat="1" ht="32" thickTop="1" thickBot="1">
+    <row r="105" spans="1:11" s="224" customFormat="1" ht="31.2" thickTop="1" thickBot="1">
       <c r="A105" s="223"/>
       <c r="B105" s="215" t="s">
         <v>71</v>
@@ -6198,7 +6172,7 @@
       <c r="J105" s="291"/>
       <c r="K105" s="292"/>
     </row>
-    <row r="106" spans="1:11" s="224" customFormat="1" ht="31.5" thickBot="1">
+    <row r="106" spans="1:11" s="224" customFormat="1" ht="30.6" thickBot="1">
       <c r="A106" s="223" t="s">
         <v>412</v>
       </c>
@@ -6228,7 +6202,7 @@
       <c r="J106" s="291"/>
       <c r="K106" s="292"/>
     </row>
-    <row r="107" spans="1:11" s="290" customFormat="1" ht="124.5" thickBot="1">
+    <row r="107" spans="1:11" s="290" customFormat="1" ht="125.4" thickBot="1">
       <c r="A107" s="223" t="s">
         <v>412</v>
       </c>
@@ -6262,7 +6236,7 @@
       </c>
       <c r="K107" s="289"/>
     </row>
-    <row r="108" spans="1:11" ht="62.5" thickBot="1">
+    <row r="108" spans="1:11" ht="63" thickBot="1">
       <c r="B108" s="188"/>
       <c r="C108" s="151" t="s">
         <v>341</v>
@@ -6293,7 +6267,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="224" customFormat="1" ht="87.5" thickBot="1">
+    <row r="109" spans="1:11" s="224" customFormat="1" ht="87" thickBot="1">
       <c r="A109" s="223" t="s">
         <v>412</v>
       </c>
@@ -6327,7 +6301,7 @@
       </c>
       <c r="K109" s="292"/>
     </row>
-    <row r="110" spans="1:11" s="224" customFormat="1" ht="58.5" thickBot="1">
+    <row r="110" spans="1:11" s="224" customFormat="1" ht="58.2" thickBot="1">
       <c r="A110" s="223" t="s">
         <v>412</v>
       </c>
@@ -6363,56 +6337,56 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J97" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J110" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J109" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J108" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J107" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J89" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J82" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J77" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J61" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J58" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J65" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J64" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J62" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J56" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J54" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J60" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J59" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J57" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J55" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J52" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J51" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J50" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J49" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J48" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J47" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J45" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J41" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J38" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J40" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J39" display="https://www.officesupply.com/office-supplies/general-supplies/staplers/specialty-staplers/bostitch-mini-stapler/p67754.html?mrkgcl=605&amp;mrkgadid=3246421865&amp;product_id=67754&amp;adpos=1o1&amp;creative=164952429096&amp;device=c&amp;matchtype=&amp;network=g&amp;ref=pla&amp;gclid=EAIaIQo" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J37" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="J35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="J33" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="J32" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J31" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="J28" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J27" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J26" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J25" r:id="rId39" location="productDetail" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J24" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J19" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J10" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J9" display="www.orientaltrading.com/wooden-spools-a2-48_7293.fltr?sku=48%2F7293&amp;BP=PS544&amp;ms=search&amp;source=bing&amp;cm_mmc=BingPLA-_-268373921-_-1177577178789509-_-48%2F7293&amp;cm_mmca1=OTC%2BPLAs&amp;cm_mmca2=BingPLAs&amp;cm_mmca3=PS544&amp;cm_mmca4=FS39&amp;cm_mmca5=Shopping&amp;cm_mmca6=PLAs" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J5" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J8" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J20" r:id="rId45" display="http://www.orientaltrading.com/rainbow-mini-duck-tape-brand-duct-tape-a2-13635085.fltr?sku=13635085&amp;BP=PS544&amp;ms=search&amp;source=bing&amp;cm_mmc=BingPLA-_-268373921-_-1177577178789509-_-13635085&amp;cm_mmca1=OTC%2BPLAs&amp;cm_mmca2=BingPLAs&amp;cm_mmca3=PS544&amp;cm_mmca4=FS39&amp;cm_mmca5=Shopping&amp;cm_mmca6=PLAs&amp;cm_mmc10=Shopping&amp;cm_mmca11=13635085&amp;cm_mmca12=Rainbow-Mini-Duck-Tape%AE-Brand-Duct-Tape" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J14" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J12" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J18" r:id="rId48" display="https://www.uline.com/Product/Detail/S-2438/Corrugated-Pads/10-x-10-150-lb-Corrugated-Pads " xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J97" r:id="rId1"/>
+    <hyperlink ref="J110" r:id="rId2"/>
+    <hyperlink ref="J109" r:id="rId3"/>
+    <hyperlink ref="J108" r:id="rId4"/>
+    <hyperlink ref="J107" r:id="rId5"/>
+    <hyperlink ref="J89" r:id="rId6"/>
+    <hyperlink ref="J82" r:id="rId7"/>
+    <hyperlink ref="J77" r:id="rId8"/>
+    <hyperlink ref="J61" r:id="rId9"/>
+    <hyperlink ref="J58" r:id="rId10"/>
+    <hyperlink ref="J65" r:id="rId11"/>
+    <hyperlink ref="J64" r:id="rId12"/>
+    <hyperlink ref="J62" r:id="rId13"/>
+    <hyperlink ref="J56" r:id="rId14"/>
+    <hyperlink ref="J54" r:id="rId15"/>
+    <hyperlink ref="J60" r:id="rId16"/>
+    <hyperlink ref="J59" r:id="rId17"/>
+    <hyperlink ref="J57" r:id="rId18"/>
+    <hyperlink ref="J55" r:id="rId19"/>
+    <hyperlink ref="J52" r:id="rId20"/>
+    <hyperlink ref="J51" r:id="rId21"/>
+    <hyperlink ref="J50" r:id="rId22"/>
+    <hyperlink ref="J49" r:id="rId23"/>
+    <hyperlink ref="J48" r:id="rId24"/>
+    <hyperlink ref="J47" r:id="rId25"/>
+    <hyperlink ref="J45" r:id="rId26"/>
+    <hyperlink ref="J41" r:id="rId27"/>
+    <hyperlink ref="J38" r:id="rId28"/>
+    <hyperlink ref="J40" r:id="rId29"/>
+    <hyperlink ref="J39" display="https://www.officesupply.com/office-supplies/general-supplies/staplers/specialty-staplers/bostitch-mini-stapler/p67754.html?mrkgcl=605&amp;mrkgadid=3246421865&amp;product_id=67754&amp;adpos=1o1&amp;creative=164952429096&amp;device=c&amp;matchtype=&amp;network=g&amp;ref=pla&amp;gclid=EAIaIQo"/>
+    <hyperlink ref="J37" r:id="rId30"/>
+    <hyperlink ref="J36" r:id="rId31"/>
+    <hyperlink ref="J35" r:id="rId32"/>
+    <hyperlink ref="J33" r:id="rId33"/>
+    <hyperlink ref="J32" r:id="rId34"/>
+    <hyperlink ref="J31" r:id="rId35"/>
+    <hyperlink ref="J28" r:id="rId36"/>
+    <hyperlink ref="J27" r:id="rId37"/>
+    <hyperlink ref="J26" r:id="rId38"/>
+    <hyperlink ref="J25" r:id="rId39" location="productDetail"/>
+    <hyperlink ref="J24" r:id="rId40"/>
+    <hyperlink ref="J19" r:id="rId41"/>
+    <hyperlink ref="J10" r:id="rId42"/>
+    <hyperlink ref="J9" display="www.orientaltrading.com/wooden-spools-a2-48_7293.fltr?sku=48%2F7293&amp;BP=PS544&amp;ms=search&amp;source=bing&amp;cm_mmc=BingPLA-_-268373921-_-1177577178789509-_-48%2F7293&amp;cm_mmca1=OTC%2BPLAs&amp;cm_mmca2=BingPLAs&amp;cm_mmca3=PS544&amp;cm_mmca4=FS39&amp;cm_mmca5=Shopping&amp;cm_mmca6=PLAs"/>
+    <hyperlink ref="J5" r:id="rId43"/>
+    <hyperlink ref="J8" r:id="rId44"/>
+    <hyperlink ref="J20" r:id="rId45" display="http://www.orientaltrading.com/rainbow-mini-duck-tape-brand-duct-tape-a2-13635085.fltr?sku=13635085&amp;BP=PS544&amp;ms=search&amp;source=bing&amp;cm_mmc=BingPLA-_-268373921-_-1177577178789509-_-13635085&amp;cm_mmca1=OTC%2BPLAs&amp;cm_mmca2=BingPLAs&amp;cm_mmca3=PS544&amp;cm_mmca4=FS39&amp;cm_mmca5=Shopping&amp;cm_mmca6=PLAs&amp;cm_mmc10=Shopping&amp;cm_mmca11=13635085&amp;cm_mmca12=Rainbow-Mini-Duck-Tape%AE-Brand-Duct-Tape"/>
+    <hyperlink ref="J14" r:id="rId46"/>
+    <hyperlink ref="J12" r:id="rId47"/>
+    <hyperlink ref="J18" r:id="rId48" display="https://www.uline.com/Product/Detail/S-2438/Corrugated-Pads/10-x-10-150-lb-Corrugated-Pads "/>
   </hyperlinks>
   <pageMargins left="0.25" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId49"/>
@@ -6423,41 +6397,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" customWidth="1"/>
-    <col min="2" max="2" width="61.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" customWidth="1"/>
+    <col min="2" max="2" width="61.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1796875" customWidth="1"/>
-    <col min="10" max="10" width="47.1796875" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" customWidth="1"/>
+    <col min="10" max="10" width="47.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5">
-      <c r="A1" s="296" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="308" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
       <c r="J1" s="105"/>
     </row>
-    <row r="2" spans="1:10" ht="15.5">
+    <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
@@ -6473,7 +6447,7 @@
       <c r="I2" s="111"/>
       <c r="J2" s="111"/>
     </row>
-    <row r="3" spans="1:10" ht="15.5">
+    <row r="3" spans="1:10" ht="15.6">
       <c r="A3" s="106" t="s">
         <v>3</v>
       </c>
@@ -6489,7 +6463,7 @@
       <c r="I3" s="111"/>
       <c r="J3" s="111"/>
     </row>
-    <row r="4" spans="1:10" ht="15.5">
+    <row r="4" spans="1:10" ht="15.6">
       <c r="A4" s="106" t="s">
         <v>4</v>
       </c>
@@ -6505,7 +6479,7 @@
       <c r="I4" s="115"/>
       <c r="J4" s="115"/>
     </row>
-    <row r="5" spans="1:10" ht="15.5">
+    <row r="5" spans="1:10" ht="15">
       <c r="A5" s="81" t="s">
         <v>5</v>
       </c>
@@ -6537,7 +6511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.5">
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="116" t="s">
         <v>22</v>
       </c>
@@ -6568,7 +6542,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.5">
+    <row r="7" spans="1:10" ht="15.6">
       <c r="A7" s="116" t="s">
         <v>130</v>
       </c>
@@ -6599,7 +6573,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.5">
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="116">
         <v>2009</v>
       </c>
@@ -6630,7 +6604,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.5">
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" s="121" t="s">
         <v>22</v>
       </c>
@@ -6660,7 +6634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.5">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="125" t="s">
         <v>283</v>
       </c>
@@ -6691,7 +6665,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.5">
+    <row r="11" spans="1:10" ht="15.6">
       <c r="A11" s="116" t="s">
         <v>288</v>
       </c>
@@ -6722,7 +6696,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.5">
+    <row r="12" spans="1:10" ht="15.6">
       <c r="A12" s="129">
         <v>400011857257</v>
       </c>
@@ -6753,7 +6727,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.5">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="116" t="s">
         <v>120</v>
       </c>
@@ -6784,7 +6758,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.5">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="121" t="s">
         <v>125</v>
       </c>
@@ -6815,7 +6789,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.5">
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="129">
         <v>10074506116197</v>
       </c>
@@ -6845,7 +6819,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.5">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="116" t="s">
         <v>133</v>
       </c>
@@ -6876,7 +6850,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.5">
+    <row r="17" spans="1:10" ht="15">
       <c r="A17" s="116" t="s">
         <v>305</v>
       </c>
@@ -6907,7 +6881,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.5">
+    <row r="18" spans="1:10" ht="15">
       <c r="A18" s="116" t="s">
         <v>310</v>
       </c>
@@ -6938,7 +6912,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.5">
+    <row r="19" spans="1:10" ht="15">
       <c r="A19" s="116" t="s">
         <v>314</v>
       </c>
@@ -6969,7 +6943,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.5">
+    <row r="20" spans="1:10" ht="15">
       <c r="A20" s="121" t="s">
         <v>318</v>
       </c>
@@ -7000,7 +6974,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.5">
+    <row r="21" spans="1:10" ht="15.6">
       <c r="A21" s="116" t="s">
         <v>324</v>
       </c>
@@ -7031,7 +7005,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.5">
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" s="116">
         <v>13635085</v>
       </c>
@@ -7062,7 +7036,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.5">
+    <row r="23" spans="1:10" ht="15.6">
       <c r="A23" s="139" t="s">
         <v>335</v>
       </c>
@@ -7093,7 +7067,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.5">
+    <row r="24" spans="1:10" ht="15.6">
       <c r="A24" s="145"/>
       <c r="B24" s="145"/>
       <c r="C24" s="145"/>
@@ -7108,16 +7082,16 @@
       <c r="I24" s="145"/>
       <c r="J24" s="145"/>
     </row>
-    <row r="25" spans="1:10" ht="16" thickBot="1">
+    <row r="25" spans="1:10" ht="16.2" thickBot="1">
       <c r="A25" s="110"/>
       <c r="B25" s="110"/>
       <c r="C25" s="110"/>
       <c r="D25" s="110"/>
       <c r="E25" s="110"/>
-      <c r="F25" s="297" t="s">
+      <c r="F25" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="298"/>
+      <c r="G25" s="310"/>
       <c r="H25" s="147">
         <f>SUM(H6:H24)</f>
         <v>5810.22</v>
@@ -7125,7 +7099,7 @@
       <c r="I25" s="110"/>
       <c r="J25" s="110"/>
     </row>
-    <row r="26" spans="1:10" ht="15.5">
+    <row r="26" spans="1:10" ht="15.6">
       <c r="A26" s="110"/>
       <c r="B26" s="110"/>
       <c r="C26" s="110"/>
@@ -7142,7 +7116,7 @@
       <c r="I26" s="110"/>
       <c r="J26" s="110"/>
     </row>
-    <row r="30" spans="1:10" ht="18.5">
+    <row r="30" spans="1:10" ht="18">
       <c r="A30" s="30" t="s">
         <v>119</v>
       </c>
@@ -7154,15 +7128,15 @@
     <mergeCell ref="F25:G25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J20" r:id="rId1" display="https://www.uline.com/Product/Detail/S-2438/Corrugated-Pads/10-x-10-150-lb-Corrugated-Pads " xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="J14" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="J16" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="J22" r:id="rId4" display="http://www.orientaltrading.com/rainbow-mini-duck-tape-brand-duct-tape-a2-13635085.fltr?sku=13635085&amp;BP=PS544&amp;ms=search&amp;source=bing&amp;cm_mmc=BingPLA-_-268373921-_-1177577178789509-_-13635085&amp;cm_mmca1=OTC%2BPLAs&amp;cm_mmca2=BingPLAs&amp;cm_mmca3=PS544&amp;cm_mmca4=FS39&amp;cm_mmca5=Shopping&amp;cm_mmca6=PLAs&amp;cm_mmc10=Shopping&amp;cm_mmca11=13635085&amp;cm_mmca12=Rainbow-Mini-Duck-Tape%AE-Brand-Duct-Tape" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="J10" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="J7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="J11" display="www.orientaltrading.com/wooden-spools-a2-48_7293.fltr?sku=48%2F7293&amp;BP=PS544&amp;ms=search&amp;source=bing&amp;cm_mmc=BingPLA-_-268373921-_-1177577178789509-_-48%2F7293&amp;cm_mmca1=OTC%2BPLAs&amp;cm_mmca2=BingPLAs&amp;cm_mmca3=PS544&amp;cm_mmca4=FS39&amp;cm_mmca5=Shopping&amp;cm_mmca6=PLAs" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="J12" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="J21" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="J20" r:id="rId1" display="https://www.uline.com/Product/Detail/S-2438/Corrugated-Pads/10-x-10-150-lb-Corrugated-Pads "/>
+    <hyperlink ref="J14" r:id="rId2"/>
+    <hyperlink ref="J16" r:id="rId3"/>
+    <hyperlink ref="J22" r:id="rId4" display="http://www.orientaltrading.com/rainbow-mini-duck-tape-brand-duct-tape-a2-13635085.fltr?sku=13635085&amp;BP=PS544&amp;ms=search&amp;source=bing&amp;cm_mmc=BingPLA-_-268373921-_-1177577178789509-_-13635085&amp;cm_mmca1=OTC%2BPLAs&amp;cm_mmca2=BingPLAs&amp;cm_mmca3=PS544&amp;cm_mmca4=FS39&amp;cm_mmca5=Shopping&amp;cm_mmca6=PLAs&amp;cm_mmc10=Shopping&amp;cm_mmca11=13635085&amp;cm_mmca12=Rainbow-Mini-Duck-Tape%AE-Brand-Duct-Tape"/>
+    <hyperlink ref="J10" r:id="rId5"/>
+    <hyperlink ref="J7" r:id="rId6"/>
+    <hyperlink ref="J11" display="www.orientaltrading.com/wooden-spools-a2-48_7293.fltr?sku=48%2F7293&amp;BP=PS544&amp;ms=search&amp;source=bing&amp;cm_mmc=BingPLA-_-268373921-_-1177577178789509-_-48%2F7293&amp;cm_mmca1=OTC%2BPLAs&amp;cm_mmca2=BingPLAs&amp;cm_mmca3=PS544&amp;cm_mmca4=FS39&amp;cm_mmca5=Shopping&amp;cm_mmca6=PLAs"/>
+    <hyperlink ref="J12" r:id="rId7"/>
+    <hyperlink ref="J21" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId9"/>
@@ -7170,41 +7144,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD30"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25">
-      <c r="A1" s="299" t="s">
+    <row r="1" spans="1:12" ht="24.6">
+      <c r="A1" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="299"/>
-      <c r="C1" s="299"/>
-      <c r="D1" s="299"/>
-      <c r="E1" s="299"/>
-      <c r="F1" s="299"/>
-      <c r="G1" s="299"/>
-      <c r="H1" s="299"/>
-      <c r="I1" s="299"/>
+      <c r="B1" s="311"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="311"/>
+      <c r="F1" s="311"/>
+      <c r="G1" s="311"/>
+      <c r="H1" s="311"/>
+      <c r="I1" s="311"/>
       <c r="J1" s="52"/>
     </row>
-    <row r="2" spans="1:12" ht="25">
+    <row r="2" spans="1:12" ht="24.6">
       <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
@@ -7220,7 +7194,7 @@
       <c r="I2" s="55"/>
       <c r="J2" s="55"/>
     </row>
-    <row r="3" spans="1:12" ht="25">
+    <row r="3" spans="1:12" ht="24.6">
       <c r="A3" s="53" t="s">
         <v>3</v>
       </c>
@@ -7238,7 +7212,7 @@
       <c r="I3" s="55"/>
       <c r="J3" s="55"/>
     </row>
-    <row r="4" spans="1:12" ht="20">
+    <row r="4" spans="1:12" ht="21">
       <c r="A4" s="53" t="s">
         <v>4</v>
       </c>
@@ -7286,7 +7260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:12" ht="16.8" thickTop="1" thickBot="1">
       <c r="A6" s="60" t="s">
         <v>185</v>
       </c>
@@ -7315,7 +7289,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1">
+    <row r="7" spans="1:12" ht="16.2" thickBot="1">
       <c r="A7" s="60" t="s">
         <v>189</v>
       </c>
@@ -7346,7 +7320,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" thickBot="1">
+    <row r="8" spans="1:12" ht="16.2" thickBot="1">
       <c r="A8" s="60" t="s">
         <v>196</v>
       </c>
@@ -7373,7 +7347,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" thickBot="1">
+    <row r="9" spans="1:12" ht="16.2" thickBot="1">
       <c r="A9" s="60"/>
       <c r="B9" s="61" t="s">
         <v>197</v>
@@ -7398,7 +7372,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" thickBot="1">
+    <row r="10" spans="1:12" ht="16.2" thickBot="1">
       <c r="A10" s="60"/>
       <c r="B10" s="61" t="s">
         <v>200</v>
@@ -7429,7 +7403,7 @@
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" ht="16" thickBot="1">
+    <row r="11" spans="1:12" ht="16.2" thickBot="1">
       <c r="A11" s="66"/>
       <c r="B11" s="67" t="s">
         <v>385</v>
@@ -7456,7 +7430,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16" thickBot="1">
+    <row r="12" spans="1:12" ht="15.6" thickBot="1">
       <c r="A12" s="66"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -7475,7 +7449,7 @@
       </c>
       <c r="J12" s="87"/>
     </row>
-    <row r="13" spans="1:12" ht="16" thickBot="1">
+    <row r="13" spans="1:12" ht="16.2" thickBot="1">
       <c r="A13" s="66" t="s">
         <v>204</v>
       </c>
@@ -7506,7 +7480,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16" thickBot="1">
+    <row r="14" spans="1:12" ht="16.2" thickBot="1">
       <c r="A14" s="66" t="s">
         <v>376</v>
       </c>
@@ -7533,7 +7507,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16" thickBot="1">
+    <row r="15" spans="1:12" ht="16.2" thickBot="1">
       <c r="A15" s="66" t="s">
         <v>209</v>
       </c>
@@ -7564,7 +7538,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16" thickBot="1">
+    <row r="16" spans="1:12" ht="16.2" thickBot="1">
       <c r="A16" s="66"/>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
@@ -7581,7 +7555,7 @@
       <c r="I16" s="70"/>
       <c r="J16" s="72"/>
     </row>
-    <row r="17" spans="1:56" ht="16" thickBot="1">
+    <row r="17" spans="1:56" ht="16.2" thickBot="1">
       <c r="A17" s="66" t="s">
         <v>212</v>
       </c>
@@ -7612,7 +7586,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:56" ht="16" thickBot="1">
+    <row r="18" spans="1:56" ht="16.2" thickBot="1">
       <c r="A18" s="66" t="s">
         <v>217</v>
       </c>
@@ -7643,7 +7617,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:56" ht="16" thickBot="1">
+    <row r="19" spans="1:56" ht="15.6" thickBot="1">
       <c r="A19" s="60" t="s">
         <v>271</v>
       </c>
@@ -7677,7 +7651,7 @@
       <c r="N19" s="29"/>
       <c r="O19" s="29"/>
     </row>
-    <row r="20" spans="1:56" ht="16" thickBot="1">
+    <row r="20" spans="1:56" ht="16.2" thickBot="1">
       <c r="A20" s="60" t="s">
         <v>219</v>
       </c>
@@ -7708,7 +7682,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:56" ht="16" thickBot="1">
+    <row r="21" spans="1:56" ht="16.2" thickBot="1">
       <c r="A21" s="66" t="s">
         <v>222</v>
       </c>
@@ -7735,7 +7709,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:56" ht="16" thickBot="1">
+    <row r="22" spans="1:56" ht="16.2" thickBot="1">
       <c r="A22" s="60" t="s">
         <v>229</v>
       </c>
@@ -7808,7 +7782,7 @@
       <c r="BC22" s="29"/>
       <c r="BD22" s="29"/>
     </row>
-    <row r="23" spans="1:56" ht="16" thickBot="1">
+    <row r="23" spans="1:56" ht="15.6" thickBot="1">
       <c r="A23" s="20"/>
       <c r="B23" s="21" t="s">
         <v>383</v>
@@ -7833,7 +7807,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:56" ht="16" thickBot="1">
+    <row r="24" spans="1:56" ht="15.6" thickBot="1">
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -7845,7 +7819,7 @@
       <c r="I24" s="26"/>
       <c r="J24" s="27"/>
     </row>
-    <row r="25" spans="1:56" ht="16" thickBot="1">
+    <row r="25" spans="1:56" ht="15.6" thickBot="1">
       <c r="A25" s="20"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -7857,7 +7831,7 @@
       <c r="I25" s="26"/>
       <c r="J25" s="27"/>
     </row>
-    <row r="26" spans="1:56" ht="16" thickBot="1">
+    <row r="26" spans="1:56" ht="15.6" thickBot="1">
       <c r="A26" s="20" t="s">
         <v>2</v>
       </c>
@@ -7882,13 +7856,13 @@
       </c>
       <c r="J26" s="27"/>
     </row>
-    <row r="27" spans="1:56" ht="20.5" thickBot="1">
+    <row r="27" spans="1:56" ht="21.6" thickBot="1">
       <c r="A27" s="12"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="300" t="s">
+      <c r="F27" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="301"/>
+      <c r="G27" s="313"/>
       <c r="H27" s="28">
         <f>SUM(H6:H26)</f>
         <v>5499.6900000000005</v>
@@ -7896,7 +7870,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="15"/>
     </row>
-    <row r="30" spans="1:56" ht="18.5">
+    <row r="30" spans="1:56" ht="18">
       <c r="A30" s="30" t="s">
         <v>119</v>
       </c>
@@ -7908,21 +7882,21 @@
     <mergeCell ref="F27:G27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="J7" r:id="rId2" location="productDetail" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="J8" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="J9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="J10" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="J13" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="J14" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="J15" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="J17" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="J18" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="J19" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="J21" display="https://www.officesupply.com/office-supplies/general-supplies/staplers/specialty-staplers/bostitch-mini-stapler/p67754.html?mrkgcl=605&amp;mrkgadid=3246421865&amp;product_id=67754&amp;adpos=1o1&amp;creative=164952429096&amp;device=c&amp;matchtype=&amp;network=g&amp;ref=pla&amp;gclid=EAIaIQo" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="J22" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="J20" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="J23" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="J6" r:id="rId1"/>
+    <hyperlink ref="J7" r:id="rId2" location="productDetail"/>
+    <hyperlink ref="J8" r:id="rId3"/>
+    <hyperlink ref="J9" r:id="rId4"/>
+    <hyperlink ref="J10" r:id="rId5"/>
+    <hyperlink ref="J13" r:id="rId6"/>
+    <hyperlink ref="J14" r:id="rId7"/>
+    <hyperlink ref="J15" r:id="rId8"/>
+    <hyperlink ref="J17" r:id="rId9"/>
+    <hyperlink ref="J18" r:id="rId10"/>
+    <hyperlink ref="J19" r:id="rId11"/>
+    <hyperlink ref="J21" display="https://www.officesupply.com/office-supplies/general-supplies/staplers/specialty-staplers/bostitch-mini-stapler/p67754.html?mrkgcl=605&amp;mrkgadid=3246421865&amp;product_id=67754&amp;adpos=1o1&amp;creative=164952429096&amp;device=c&amp;matchtype=&amp;network=g&amp;ref=pla&amp;gclid=EAIaIQo"/>
+    <hyperlink ref="J22" r:id="rId12"/>
+    <hyperlink ref="J20" r:id="rId13"/>
+    <hyperlink ref="J23" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId15"/>
@@ -7930,42 +7904,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView topLeftCell="E20" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.1796875" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.54296875" customWidth="1"/>
+    <col min="9" max="9" width="29.5546875" customWidth="1"/>
     <col min="10" max="10" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25">
-      <c r="A1" s="302" t="s">
+    <row r="1" spans="1:10" ht="24.6">
+      <c r="A1" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="302"/>
-      <c r="F1" s="302"/>
-      <c r="G1" s="302"/>
-      <c r="H1" s="302"/>
-      <c r="I1" s="302"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
+      <c r="G1" s="314"/>
+      <c r="H1" s="314"/>
+      <c r="I1" s="314"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="25">
+    <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -7981,7 +7955,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="25">
+    <row r="3" spans="1:10" ht="24.6">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -7999,7 +7973,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="20">
+    <row r="4" spans="1:10" ht="21">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
@@ -8049,7 +8023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="32" thickTop="1" thickBot="1">
+    <row r="6" spans="1:10" ht="31.2" thickTop="1" thickBot="1">
       <c r="A6" s="20" t="s">
         <v>62</v>
       </c>
@@ -8079,7 +8053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="7" spans="1:10" ht="15.6" thickBot="1">
       <c r="A7" s="20" t="s">
         <v>63</v>
       </c>
@@ -8093,7 +8067,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="1:10" ht="31.5" thickBot="1">
+    <row r="8" spans="1:10" ht="30.6" thickBot="1">
       <c r="A8" s="20">
         <v>11029200</v>
       </c>
@@ -8123,7 +8097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.6" thickBot="1">
       <c r="A9" s="20" t="s">
         <v>64</v>
       </c>
@@ -8154,7 +8128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16" thickBot="1">
+    <row r="10" spans="1:10" ht="15.6" thickBot="1">
       <c r="A10" s="20">
         <v>22584104</v>
       </c>
@@ -8185,7 +8159,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" thickBot="1">
+    <row r="11" spans="1:10" ht="15.6" thickBot="1">
       <c r="A11" s="20">
         <v>10400921</v>
       </c>
@@ -8216,7 +8190,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16" thickBot="1">
+    <row r="12" spans="1:10" ht="15.6" thickBot="1">
       <c r="A12" s="20">
         <v>556138647</v>
       </c>
@@ -8247,7 +8221,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16" thickBot="1">
+    <row r="13" spans="1:10" ht="15.6" thickBot="1">
       <c r="A13" s="20">
         <v>15166</v>
       </c>
@@ -8278,7 +8252,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="47" thickBot="1">
+    <row r="14" spans="1:10" ht="45.6" thickBot="1">
       <c r="A14" s="20">
         <v>564439325</v>
       </c>
@@ -8309,7 +8283,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="31.5" thickBot="1">
+    <row r="15" spans="1:10" ht="30.6" thickBot="1">
       <c r="A15" s="20" t="s">
         <v>97</v>
       </c>
@@ -8340,7 +8314,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="31.5" thickBot="1">
+    <row r="16" spans="1:10" ht="30.6" thickBot="1">
       <c r="A16" s="20" t="s">
         <v>96</v>
       </c>
@@ -8371,7 +8345,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16" thickBot="1">
+    <row r="17" spans="1:10" ht="15.6" thickBot="1">
       <c r="A17" s="86">
         <v>625277</v>
       </c>
@@ -8402,7 +8376,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1">
+    <row r="18" spans="1:10" ht="15.6" thickBot="1">
       <c r="A18" s="20" t="s">
         <v>98</v>
       </c>
@@ -8431,7 +8405,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1">
+    <row r="19" spans="1:10" ht="15.6" thickBot="1">
       <c r="A19" s="20" t="s">
         <v>374</v>
       </c>
@@ -8462,7 +8436,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16" thickBot="1">
+    <row r="20" spans="1:10" ht="15.6" thickBot="1">
       <c r="A20" s="20">
         <v>9171119</v>
       </c>
@@ -8493,7 +8467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="31.5" thickBot="1">
+    <row r="21" spans="1:10" ht="30.6" thickBot="1">
       <c r="A21" s="20">
         <v>565320669</v>
       </c>
@@ -8524,7 +8498,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="15.6" thickBot="1">
       <c r="A22" s="20" t="s">
         <v>369</v>
       </c>
@@ -8555,7 +8529,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
+    <row r="23" spans="1:10" ht="15.6" thickBot="1">
       <c r="A23" s="20">
         <v>178257</v>
       </c>
@@ -8586,7 +8560,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16" thickBot="1">
+    <row r="24" spans="1:10" ht="15.6" thickBot="1">
       <c r="A24" s="20" t="s">
         <v>375</v>
       </c>
@@ -8617,7 +8591,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16" thickBot="1">
+    <row r="25" spans="1:10" ht="15.6" thickBot="1">
       <c r="A25" s="20" t="s">
         <v>111</v>
       </c>
@@ -8648,7 +8622,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="31.5" thickBot="1">
+    <row r="26" spans="1:10" ht="30.6" thickBot="1">
       <c r="A26" s="20">
         <v>843342</v>
       </c>
@@ -8679,7 +8653,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16" thickBot="1">
+    <row r="27" spans="1:10" ht="15.6" thickBot="1">
       <c r="A27" s="20" t="s">
         <v>2</v>
       </c>
@@ -8704,7 +8678,7 @@
       </c>
       <c r="J27" s="27"/>
     </row>
-    <row r="28" spans="1:10" ht="16" thickBot="1">
+    <row r="28" spans="1:10" ht="15.6" thickBot="1">
       <c r="A28" s="20" t="s">
         <v>2</v>
       </c>
@@ -8729,7 +8703,7 @@
       </c>
       <c r="J28" s="27"/>
     </row>
-    <row r="29" spans="1:10" ht="16" thickBot="1">
+    <row r="29" spans="1:10" ht="15.6" thickBot="1">
       <c r="A29" s="20" t="s">
         <v>2</v>
       </c>
@@ -8754,13 +8728,13 @@
       </c>
       <c r="J29" s="27"/>
     </row>
-    <row r="30" spans="1:10" ht="20.5" thickBot="1">
+    <row r="30" spans="1:10" ht="21.6" thickBot="1">
       <c r="A30" s="12"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="300" t="s">
+      <c r="F30" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="301"/>
+      <c r="G30" s="313"/>
       <c r="H30" s="28">
         <f>SUM(H6:H29)</f>
         <v>3917.8400000000006</v>
@@ -8768,7 +8742,7 @@
       <c r="I30" s="14"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10" ht="18.5">
+    <row r="31" spans="1:10" ht="18">
       <c r="B31" s="30" t="s">
         <v>119</v>
       </c>
@@ -8789,24 +8763,24 @@
     <mergeCell ref="F30:G30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J6" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="J8" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="J9" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="J10" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="J11" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="J12" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="J13" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="J16" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="J18" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="J20" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="J21" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="J15" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="J17" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="J23" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="J25" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="J26" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="J19" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="J22" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="J6" r:id="rId1"/>
+    <hyperlink ref="J8" r:id="rId2"/>
+    <hyperlink ref="J9" r:id="rId3"/>
+    <hyperlink ref="J10" r:id="rId4"/>
+    <hyperlink ref="J11" r:id="rId5"/>
+    <hyperlink ref="J12" r:id="rId6"/>
+    <hyperlink ref="J13" r:id="rId7"/>
+    <hyperlink ref="J16" r:id="rId8"/>
+    <hyperlink ref="J18" r:id="rId9"/>
+    <hyperlink ref="J20" r:id="rId10"/>
+    <hyperlink ref="J21" r:id="rId11"/>
+    <hyperlink ref="J15" r:id="rId12"/>
+    <hyperlink ref="J17" r:id="rId13"/>
+    <hyperlink ref="J23" r:id="rId14"/>
+    <hyperlink ref="J25" r:id="rId15"/>
+    <hyperlink ref="J26" r:id="rId16"/>
+    <hyperlink ref="J19" r:id="rId17"/>
+    <hyperlink ref="J22" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId19"/>
@@ -8814,41 +8788,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL35"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1796875" customWidth="1"/>
-    <col min="10" max="10" width="38.81640625" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" ht="25">
-      <c r="A1" s="299" t="s">
+    <row r="1" spans="1:90" ht="24.6">
+      <c r="A1" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="299"/>
-      <c r="C1" s="299"/>
-      <c r="D1" s="299"/>
-      <c r="E1" s="299"/>
-      <c r="F1" s="299"/>
-      <c r="G1" s="299"/>
-      <c r="H1" s="299"/>
-      <c r="I1" s="299"/>
+      <c r="B1" s="311"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="311"/>
+      <c r="F1" s="311"/>
+      <c r="G1" s="311"/>
+      <c r="H1" s="311"/>
+      <c r="I1" s="311"/>
       <c r="J1" s="52"/>
     </row>
-    <row r="2" spans="1:90" ht="25">
+    <row r="2" spans="1:90" ht="24.6">
       <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
@@ -8864,7 +8838,7 @@
       <c r="I2" s="55"/>
       <c r="J2" s="55"/>
     </row>
-    <row r="3" spans="1:90" ht="25">
+    <row r="3" spans="1:90" ht="24.6">
       <c r="A3" s="53" t="s">
         <v>3</v>
       </c>
@@ -8880,7 +8854,7 @@
       <c r="I3" s="55"/>
       <c r="J3" s="55"/>
     </row>
-    <row r="4" spans="1:90" ht="20">
+    <row r="4" spans="1:90" ht="21">
       <c r="A4" s="53" t="s">
         <v>4</v>
       </c>
@@ -9156,7 +9130,7 @@
       <c r="CK10" s="45"/>
       <c r="CL10" s="45"/>
     </row>
-    <row r="11" spans="1:90" ht="16" thickBot="1">
+    <row r="11" spans="1:90" ht="15.6" thickBot="1">
       <c r="A11" s="97" t="s">
         <v>169</v>
       </c>
@@ -9374,7 +9348,7 @@
       <c r="CK12" s="45"/>
       <c r="CL12" s="45"/>
     </row>
-    <row r="13" spans="1:90" ht="16" thickBot="1">
+    <row r="13" spans="1:90" ht="15.6" thickBot="1">
       <c r="A13" s="66" t="s">
         <v>71</v>
       </c>
@@ -9401,7 +9375,7 @@
       </c>
       <c r="J13" s="88"/>
     </row>
-    <row r="14" spans="1:90" ht="16" thickBot="1">
+    <row r="14" spans="1:90" ht="15.6" thickBot="1">
       <c r="A14" s="66" t="s">
         <v>354</v>
       </c>
@@ -9432,7 +9406,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:90" ht="16" thickBot="1">
+    <row r="15" spans="1:90" ht="15.6" thickBot="1">
       <c r="A15" s="66" t="s">
         <v>63</v>
       </c>
@@ -9492,7 +9466,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:77" s="29" customFormat="1" ht="16" thickBot="1">
+    <row r="17" spans="1:77" s="29" customFormat="1" ht="15.6" thickBot="1">
       <c r="A17" s="60" t="s">
         <v>161</v>
       </c>
@@ -9588,7 +9562,7 @@
       <c r="BX17" s="44"/>
       <c r="BY17" s="44"/>
     </row>
-    <row r="18" spans="1:77" ht="16" thickBot="1">
+    <row r="18" spans="1:77" ht="15.6" thickBot="1">
       <c r="A18" s="66" t="s">
         <v>230</v>
       </c>
@@ -9617,7 +9591,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:77" ht="16" thickBot="1">
+    <row r="19" spans="1:77" ht="15.6" thickBot="1">
       <c r="A19" s="66"/>
       <c r="B19" s="67" t="s">
         <v>156</v>
@@ -9667,7 +9641,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="1:77" s="29" customFormat="1" ht="16" thickBot="1">
+    <row r="21" spans="1:77" s="29" customFormat="1" ht="15.6" thickBot="1">
       <c r="A21" s="60" t="s">
         <v>361</v>
       </c>
@@ -9698,7 +9672,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="1:77" ht="16" thickBot="1">
+    <row r="22" spans="1:77" ht="15.6" thickBot="1">
       <c r="A22" s="66" t="s">
         <v>392</v>
       </c>
@@ -9727,7 +9701,7 @@
       </c>
       <c r="J22" s="87"/>
     </row>
-    <row r="23" spans="1:77" ht="16" thickBot="1">
+    <row r="23" spans="1:77" ht="15.6" thickBot="1">
       <c r="A23" s="66" t="s">
         <v>2</v>
       </c>
@@ -9752,7 +9726,7 @@
       </c>
       <c r="J23" s="87"/>
     </row>
-    <row r="24" spans="1:77" ht="16" thickBot="1">
+    <row r="24" spans="1:77" ht="15.6" thickBot="1">
       <c r="A24" s="66" t="s">
         <v>2</v>
       </c>
@@ -9777,7 +9751,7 @@
       </c>
       <c r="J24" s="87"/>
     </row>
-    <row r="25" spans="1:77" ht="16" thickBot="1">
+    <row r="25" spans="1:77" ht="15.6" thickBot="1">
       <c r="A25" s="66" t="s">
         <v>2</v>
       </c>
@@ -9802,7 +9776,7 @@
       </c>
       <c r="J25" s="87"/>
     </row>
-    <row r="26" spans="1:77" ht="16" thickBot="1">
+    <row r="26" spans="1:77" ht="15.6" thickBot="1">
       <c r="A26" s="66" t="s">
         <v>2</v>
       </c>
@@ -9827,7 +9801,7 @@
       </c>
       <c r="J26" s="87"/>
     </row>
-    <row r="27" spans="1:77" ht="16" thickBot="1">
+    <row r="27" spans="1:77" ht="15.6" thickBot="1">
       <c r="A27" s="66" t="s">
         <v>2</v>
       </c>
@@ -9852,16 +9826,16 @@
       </c>
       <c r="J27" s="87"/>
     </row>
-    <row r="28" spans="1:77" ht="20.5" thickBot="1">
+    <row r="28" spans="1:77" ht="21.6" thickBot="1">
       <c r="A28" s="90"/>
       <c r="B28" s="91"/>
       <c r="C28" s="91"/>
       <c r="D28" s="91"/>
       <c r="E28" s="92"/>
-      <c r="F28" s="303" t="s">
+      <c r="F28" s="315" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="304"/>
+      <c r="G28" s="316"/>
       <c r="H28" s="93">
         <f>SUM(H6:H27)</f>
         <v>6412.95</v>
@@ -9869,13 +9843,13 @@
       <c r="I28" s="94"/>
       <c r="J28" s="95"/>
     </row>
-    <row r="30" spans="1:77" ht="18.5">
+    <row r="30" spans="1:77" ht="18">
       <c r="A30" s="30" t="s">
         <v>119</v>
       </c>
       <c r="B30" s="29"/>
     </row>
-    <row r="35" spans="2:2" ht="16">
+    <row r="35" spans="2:2" ht="15">
       <c r="B35" s="40"/>
     </row>
   </sheetData>
@@ -9884,8 +9858,8 @@
     <mergeCell ref="F28:G28"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J15" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="J20" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="J15" r:id="rId1"/>
+    <hyperlink ref="J20" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
@@ -9893,40 +9867,40 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25">
-      <c r="A1" s="302" t="s">
+    <row r="1" spans="1:12" ht="24.6">
+      <c r="A1" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="302"/>
-      <c r="F1" s="302"/>
-      <c r="G1" s="302"/>
-      <c r="H1" s="302"/>
-      <c r="I1" s="302"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
+      <c r="G1" s="314"/>
+      <c r="H1" s="314"/>
+      <c r="I1" s="314"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="25">
+    <row r="2" spans="1:12" ht="24.6">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -9942,7 +9916,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="25">
+    <row r="3" spans="1:12" ht="24.6">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -9958,7 +9932,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="20">
+    <row r="4" spans="1:12" ht="21">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
@@ -10006,7 +9980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:12" ht="16.8" thickTop="1" thickBot="1">
       <c r="A6" s="20"/>
       <c r="B6" s="31" t="s">
         <v>175</v>
@@ -10030,7 +10004,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1">
+    <row r="7" spans="1:12" ht="15.6" thickBot="1">
       <c r="A7" s="20"/>
       <c r="B7" s="31" t="s">
         <v>176</v>
@@ -10054,7 +10028,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="116.5" thickBot="1">
+    <row r="8" spans="1:12" ht="115.8" thickBot="1">
       <c r="A8" s="20"/>
       <c r="B8" s="31" t="s">
         <v>177</v>
@@ -10078,7 +10052,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="102" thickBot="1">
+    <row r="9" spans="1:12" ht="101.4" thickBot="1">
       <c r="A9" s="20" t="s">
         <v>238</v>
       </c>
@@ -10107,7 +10081,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31.5" thickBot="1">
+    <row r="10" spans="1:12" ht="30.6" thickBot="1">
       <c r="A10" s="41"/>
       <c r="B10" s="31" t="s">
         <v>179</v>
@@ -10136,7 +10110,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16" thickBot="1">
+    <row r="11" spans="1:12" ht="15.6" thickBot="1">
       <c r="A11" s="41" t="s">
         <v>244</v>
       </c>
@@ -10167,7 +10141,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="31.5" thickBot="1">
+    <row r="12" spans="1:12" ht="30.6" thickBot="1">
       <c r="A12" s="20">
         <v>1601</v>
       </c>
@@ -10198,7 +10172,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="116.5" thickBot="1">
+    <row r="13" spans="1:12" ht="115.8" thickBot="1">
       <c r="A13" s="20" t="s">
         <v>250</v>
       </c>
@@ -10225,7 +10199,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="116.5" thickBot="1">
+    <row r="14" spans="1:12" ht="101.4" thickBot="1">
       <c r="A14" s="41">
         <v>154953</v>
       </c>
@@ -10252,7 +10226,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="102" thickBot="1">
+    <row r="15" spans="1:12" ht="101.4" thickBot="1">
       <c r="A15" s="41">
         <v>659250</v>
       </c>
@@ -10281,7 +10255,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="31.5" thickBot="1">
+    <row r="16" spans="1:12" ht="30.6" thickBot="1">
       <c r="A16" s="20" t="s">
         <v>258</v>
       </c>
@@ -10308,7 +10282,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16" thickBot="1">
+    <row r="17" spans="1:10" ht="15.6" thickBot="1">
       <c r="A17" s="20" t="s">
         <v>261</v>
       </c>
@@ -10339,7 +10313,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1">
+    <row r="18" spans="1:10" ht="15.6" thickBot="1">
       <c r="A18" s="41">
         <v>106619</v>
       </c>
@@ -10370,7 +10344,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="47" thickBot="1">
+    <row r="19" spans="1:10" ht="45.6" thickBot="1">
       <c r="A19" s="41" t="s">
         <v>2</v>
       </c>
@@ -10401,7 +10375,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16" thickBot="1">
+    <row r="20" spans="1:10" ht="15.6" thickBot="1">
       <c r="A20" s="20" t="s">
         <v>2</v>
       </c>
@@ -10424,7 +10398,7 @@
       </c>
       <c r="J20" s="27"/>
     </row>
-    <row r="21" spans="1:10" ht="16" thickBot="1">
+    <row r="21" spans="1:10" ht="15.6" thickBot="1">
       <c r="A21" s="20" t="s">
         <v>2</v>
       </c>
@@ -10449,7 +10423,7 @@
       </c>
       <c r="J21" s="27"/>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="15.6" thickBot="1">
       <c r="A22" s="20" t="s">
         <v>2</v>
       </c>
@@ -10474,13 +10448,13 @@
       </c>
       <c r="J22" s="27"/>
     </row>
-    <row r="23" spans="1:10" ht="20.5" thickBot="1">
+    <row r="23" spans="1:10" ht="21.6" thickBot="1">
       <c r="A23" s="12"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="300" t="s">
+      <c r="F23" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="301"/>
+      <c r="G23" s="313"/>
       <c r="H23" s="28">
         <f>SUM(H6:H22)</f>
         <v>5330.18</v>
@@ -10488,7 +10462,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="25" spans="1:10" ht="18.5">
+    <row r="25" spans="1:10" ht="18">
       <c r="A25" s="30" t="s">
         <v>119</v>
       </c>
@@ -10500,51 +10474,51 @@
     <mergeCell ref="F23:G23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="J7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.1796875" customWidth="1"/>
-    <col min="11" max="11" width="25.1796875" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.21875" customWidth="1"/>
+    <col min="11" max="11" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25">
-      <c r="A1" s="302" t="s">
+    <row r="1" spans="1:11" ht="24.6">
+      <c r="A1" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="302"/>
-      <c r="F1" s="302"/>
-      <c r="G1" s="302"/>
-      <c r="H1" s="302"/>
-      <c r="I1" s="302"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
+      <c r="G1" s="314"/>
+      <c r="H1" s="314"/>
+      <c r="I1" s="314"/>
       <c r="J1" s="254"/>
       <c r="K1" s="255"/>
     </row>
-    <row r="2" spans="1:11" ht="25">
+    <row r="2" spans="1:11" ht="24.6">
       <c r="A2" s="256" t="s">
         <v>1</v>
       </c>
@@ -10561,7 +10535,7 @@
       <c r="J2" s="242"/>
       <c r="K2" s="255"/>
     </row>
-    <row r="3" spans="1:11" ht="25">
+    <row r="3" spans="1:11" ht="24.6">
       <c r="A3" s="256" t="s">
         <v>3</v>
       </c>
@@ -10576,7 +10550,7 @@
       <c r="J3" s="242"/>
       <c r="K3" s="255"/>
     </row>
-    <row r="4" spans="1:11" ht="20">
+    <row r="4" spans="1:11" ht="21">
       <c r="A4" s="256" t="s">
         <v>4</v>
       </c>
@@ -10593,7 +10567,7 @@
       <c r="J4" s="260"/>
       <c r="K4" s="255"/>
     </row>
-    <row r="5" spans="1:11" ht="18.5" thickBot="1">
+    <row r="5" spans="1:11" ht="18" thickBot="1">
       <c r="A5" s="261" t="s">
         <v>5</v>
       </c>
@@ -10628,7 +10602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="16.2" thickTop="1" thickBot="1">
       <c r="A6" s="20" t="s">
         <v>71</v>
       </c>
@@ -10656,7 +10630,7 @@
       <c r="J6" s="277"/>
       <c r="K6" s="278"/>
     </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="1:11" s="6" customFormat="1" ht="15.6" thickBot="1">
       <c r="A7" s="20" t="s">
         <v>63</v>
       </c>
@@ -10716,7 +10690,7 @@
       </c>
       <c r="K8" s="279"/>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+    <row r="9" spans="1:11" ht="16.2" thickBot="1">
       <c r="A9" s="265"/>
       <c r="B9" s="272" t="s">
         <v>341</v>
@@ -10748,7 +10722,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="1:11" s="6" customFormat="1" ht="15.6" thickBot="1">
       <c r="A10" s="20" t="s">
         <v>377</v>
       </c>
@@ -10780,7 +10754,7 @@
       </c>
       <c r="K10" s="278"/>
     </row>
-    <row r="11" spans="1:11" ht="16" thickBot="1">
+    <row r="11" spans="1:11" ht="16.2" thickBot="1">
       <c r="A11" s="265" t="s">
         <v>379</v>
       </c>
@@ -10812,7 +10786,7 @@
       </c>
       <c r="K11" s="269"/>
     </row>
-    <row r="12" spans="1:11" ht="16" thickBot="1">
+    <row r="12" spans="1:11" ht="16.2" thickBot="1">
       <c r="A12" s="265" t="s">
         <v>2</v>
       </c>
@@ -10838,7 +10812,7 @@
       <c r="J12" s="273"/>
       <c r="K12" s="269"/>
     </row>
-    <row r="13" spans="1:11" ht="16" thickBot="1">
+    <row r="13" spans="1:11" ht="16.2" thickBot="1">
       <c r="A13" s="265" t="s">
         <v>2</v>
       </c>
@@ -10864,7 +10838,7 @@
       <c r="J13" s="273"/>
       <c r="K13" s="269"/>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="16.2" thickBot="1">
       <c r="A14" s="265" t="s">
         <v>2</v>
       </c>
@@ -10890,7 +10864,7 @@
       <c r="J14" s="273"/>
       <c r="K14" s="269"/>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
+    <row r="15" spans="1:11" ht="16.2" thickBot="1">
       <c r="A15" s="265" t="s">
         <v>2</v>
       </c>
@@ -10916,7 +10890,7 @@
       <c r="J15" s="273"/>
       <c r="K15" s="269"/>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="16.2" thickBot="1">
       <c r="A16" s="265" t="s">
         <v>2</v>
       </c>
@@ -10942,16 +10916,16 @@
       <c r="J16" s="273"/>
       <c r="K16" s="269"/>
     </row>
-    <row r="17" spans="1:11" ht="20.5" thickBot="1">
+    <row r="17" spans="1:11" ht="21.6" thickBot="1">
       <c r="A17" s="274"/>
       <c r="B17" s="255"/>
       <c r="C17" s="255"/>
       <c r="D17" s="255"/>
       <c r="E17" s="275"/>
-      <c r="F17" s="300" t="s">
+      <c r="F17" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="301"/>
+      <c r="G17" s="313"/>
       <c r="H17" s="28">
         <f>SUM(H6:H16)</f>
         <v>7454.58</v>
@@ -10971,10 +10945,10 @@
     <mergeCell ref="F17:G17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J8" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="J9" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="J10" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="J11" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="J8" r:id="rId1"/>
+    <hyperlink ref="J9" r:id="rId2"/>
+    <hyperlink ref="J10" r:id="rId3"/>
+    <hyperlink ref="J11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
